--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2116 +418,2320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.9016823653477711</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6.879097128546417</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.003691553685900653</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.003945001275541318</v>
+      </c>
+      <c r="E2">
         <v>0.3752398869155092</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.2471619713893</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2.252774845472106</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.2241629584981936</v>
+      </c>
+      <c r="I2">
+        <v>1.661409624019695</v>
+      </c>
+      <c r="J2">
         <v>1.374766850955912</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>1.820783311752305</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>10.70016056439417</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>6.733104821998213</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.1074533394025665</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.4465824148456156</v>
       </c>
-      <c r="N2" t="n">
-        <v>32.84249905470579</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>34.72832508481332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.6510502605060389</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4.966979670118215</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E3">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.13378361035391</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2.047977132247369</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.0700509245306855</v>
+      </c>
+      <c r="I3">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="J3">
         <v>1.654016367556332</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>2.190629921951992</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>8.886574028056177</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>5.59190061487987</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.09402167197724577</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.3907596129899135</v>
       </c>
-      <c r="N3" t="n">
-        <v>27.89189147108812</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>28.48132298881719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.7711757072053309</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.883438333625223</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E4">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.417229512942387</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2.559971415309212</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I4">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J4">
         <v>1.568093439371587</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>2.076830964967473</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>8.705215374422384</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>5.477780194168037</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N4" t="n">
-        <v>28.71845513159336</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>29.7792164330545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.9699017548313194</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7.39955513498249</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E5">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.303851151906996</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>2.355173702084475</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I5">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J5">
         <v>1.503651243233029</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>1.991481747229084</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>8.161139413520983</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>5.135418932032534</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N5" t="n">
-        <v>29.14204850950287</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>30.20285205222894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.9891811475114529</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7.54664109332312</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E6">
         <v>0.437779868068094</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.360540332424691</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>2.457572558696843</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.140101849061371</v>
+      </c>
+      <c r="I6">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="J6">
         <v>1.976227348249123</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>2.617376010643939</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>9.06793268168998</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>5.706021035591704</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N6" t="n">
-        <v>32.44059676595659</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>33.61937531888486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.8838860028738023</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.743325474693526</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E7">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.700675415530864</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.071965698371054</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1541120339675081</v>
+      </c>
+      <c r="I7">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="J7">
         <v>2.169553936664799</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>2.873423663859107</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>8.161139413520983</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>5.135418932032534</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.2149066788051331</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.8931648296912311</v>
       </c>
-      <c r="N7" t="n">
-        <v>32.10008100644397</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>33.39658112198479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.9743508454498122</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>7.433498048445712</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E8">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2.210878040190123</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3.993555407882371</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.1681222188736453</v>
+      </c>
+      <c r="I8">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="J8">
         <v>1.503651243233029</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>1.991481747229084</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>6.710270184450586</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>4.222455566337862</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.1074533394025665</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.4465824148456156</v>
       </c>
-      <c r="N8" t="n">
-        <v>29.87837541791782</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>31.29274494049847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.069264778644314</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8.157613535661124</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E9">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.040810498637037</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>3.686358838045265</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.2942138830288791</v>
+      </c>
+      <c r="I9">
+        <v>2.180600131525851</v>
+      </c>
+      <c r="J9">
         <v>1.761420027787262</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>2.332878618182641</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>5.259400955380189</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>3.309492200643189</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N9" t="n">
-        <v>28.15297751968684</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>30.62791825803638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.523072021730529</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>11.61979070890981</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E10">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.700675415530864</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3.071965698371054</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.2521833283104679</v>
+      </c>
+      <c r="I10">
+        <v>1.869085827022158</v>
+      </c>
+      <c r="J10">
         <v>1.482170511186842</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>1.963032007982954</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>4.17124903357739</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>2.624769676372185</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N10" t="n">
-        <v>28.71794153123678</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>30.83940077226163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.518622931112036</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>11.58584779544659</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E11">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.417229512942387</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2.559971415309212</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.3782749924657018</v>
+      </c>
+      <c r="I11">
+        <v>2.803628740533236</v>
+      </c>
+      <c r="J11">
         <v>0.859229281847445</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>1.137989569845191</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>4.352607687211192</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>2.738890097084019</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>26.42300925119901</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>29.60508194925771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.180492044106621</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>9.006186372241688</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.004614442107375816</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.004931251594426647</v>
+      </c>
+      <c r="E12">
         <v>0.4690498586443865</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1.020405249318518</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1.843179419022632</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.3222342528411533</v>
+      </c>
+      <c r="I12">
+        <v>2.388276334528312</v>
+      </c>
+      <c r="J12">
         <v>1.009594406170748</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>1.337137744568099</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>4.17124903357739</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>2.624769676372185</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>22.66667824612965</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>25.37750564298616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.946173271532694</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7.21852626317864</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E13">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1.2471619713893</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>2.252774845472106</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.2241629584981936</v>
+      </c>
+      <c r="I13">
+        <v>1.661409624019695</v>
+      </c>
+      <c r="J13">
         <v>0.6014604972932114</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.7965926988916336</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>7.435704798985785</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>4.678937249185199</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N13" t="n">
-        <v>25.59393988576088</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>27.47974479523595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.7074054083402747</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>5.396923240652368</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E14">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.6802701662123456</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.228786279348422</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I14">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J14">
         <v>0.4510953729699086</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.5974445241687252</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>7.617063452619584</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>4.793057669897035</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>21.72466707460961</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>22.78547061733568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.4656714847355267</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.552691609150615</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E15">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.6802701662123456</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1.228786279348422</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I15">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J15">
         <v>0.5370183011546531</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.7112434811532443</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>4.715324994478791</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>2.967130938507688</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>15.20549107529258</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>16.26635797991606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.2328357423677634</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.776345804575308</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E16">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.3968242636238681</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.7167919962865793</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.09807129434295973</v>
+      </c>
+      <c r="I16">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="J16">
         <v>0.2362880525080473</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.3129471317074274</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>3.627173072675991</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>2.282408414236682</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>9.865813058432723</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>10.69094114897653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1690654435027072</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.289830711602453</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E17">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.05668918051769547</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.1023988566123685</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.0700509245306855</v>
+      </c>
+      <c r="I17">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="J17">
         <v>0.2577687845542335</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.3413968709535573</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>2.357662497239395</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>1.483565469253844</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>6.310998774637193</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>6.900409171733795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.09936302381299453</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.7580584006786345</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E18">
         <v>0.437779868068094</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.2267567220707819</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.4095954264494739</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.04203055471841131</v>
+      </c>
+      <c r="I18">
+        <v>0.3115143045036929</v>
+      </c>
+      <c r="J18">
         <v>0.2148073204618612</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.2844973924612977</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>2.357662497239395</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>1.483565469253844</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>6.276392933129927</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>6.630233481206613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.07860060092669721</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.5996581378502626</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E19">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.05668918051769547</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.1023988566123685</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19">
         <v>0.2148073204618612</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.2844973924612977</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>2.539021150873196</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>1.597685889965677</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>5.662824249969762</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>5.662950973764581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.06970241968971258</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.5317723109238183</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E20">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.2267567220707819</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.4095954264494739</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.0140101849061371</v>
+      </c>
+      <c r="I20">
+        <v>0.103838101501231</v>
+      </c>
+      <c r="J20">
         <v>0.3651724447851641</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.4836455671842062</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>3.44581441904219</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>2.168287993524848</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>7.795480163820548</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>7.913391812125325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1438539299979175</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.097487535310859</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E21">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.3401350831061728</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.6143931396742108</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.04203055471841131</v>
+      </c>
+      <c r="I21">
+        <v>0.3115143045036929</v>
+      </c>
+      <c r="J21">
         <v>0.343691712738978</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.4551958279380763</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>7.798422106253384</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>4.907178090608866</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>15.79509028577882</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>16.14869850689833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.3781727025718449</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.885147644373907</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E22">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1.13378361035391</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2.047977132247369</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I22">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J22">
         <v>0.5584990332008393</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>0.7396932203993741</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>14.69005094433777</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>9.243754077658563</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>31.77181122529393</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>32.83250916485765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.8690557008121611</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>6.630182429816114</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E23">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.9637160688008231</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1.740780562410264</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.4763462868086614</v>
+      </c>
+      <c r="I23">
+        <v>3.530495451041853</v>
+      </c>
+      <c r="J23">
         <v>1.503651243233029</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>1.991481747229084</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>13.42054036890117</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>8.444911132675724</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N23" t="n">
-        <v>36.03080285130317</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>40.03777131294851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.124136896272386</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>8.576242801707535</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E24">
         <v>0.218889934034047</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.9637160688008231</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>1.740780562410264</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.2942138830288791</v>
+      </c>
+      <c r="I24">
+        <v>2.180600131525851</v>
+      </c>
+      <c r="J24">
         <v>1.353286118909726</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>1.792333572506176</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>10.88151921802798</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>6.847225242710046</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N24" t="n">
-        <v>33.77730169881985</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>36.25226355780188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.321379913692211</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>10.08104529857706</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.001538147369125272</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.001643750531475549</v>
+      </c>
+      <c r="E25">
         <v>0.1563499528814621</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.643986235013169</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>2.969566841758686</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2661935132166048</v>
+      </c>
+      <c r="I25">
+        <v>1.972923928523388</v>
+      </c>
+      <c r="J25">
         <v>1.138478798447864</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>1.507836180044878</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>8.705215374422384</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>5.477780194168037</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N25" t="n">
-        <v>33.41870375206101</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>35.65792679696336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.076679929675135</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>8.214185058099828</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.004922071581200871</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.005260001700721757</v>
+      </c>
+      <c r="E26">
         <v>0.500319849220679</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.473918693460083</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2.66237027192158</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.2661935132166048</v>
+      </c>
+      <c r="I26">
+        <v>1.972923928523388</v>
+      </c>
+      <c r="J26">
         <v>1.71845856369489</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>2.275979139690381</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>13.05782306163358</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>8.216670291252056</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.09402167197724577</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.3907596129899135</v>
       </c>
-      <c r="N26" t="n">
-        <v>39.68610821519656</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>41.92556358705609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.778590858236151</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.940009856063925</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.003691553685900653</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.003945001275541318</v>
+      </c>
+      <c r="E27">
         <v>0.3752398869155092</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.360540332424691</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.457572558696843</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.09807129434295973</v>
+      </c>
+      <c r="I27">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="J27">
         <v>2.083631008480054</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>2.759624706874587</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>10.88151921802798</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>6.847225242710046</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N27" t="n">
-        <v>33.90317203780182</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>34.72836349024304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.840878126895043</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>6.41521064454904</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E28">
         <v>0.218889934034047</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1.530607873977778</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2.764769128533949</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.140101849061371</v>
+      </c>
+      <c r="I28">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="J28">
         <v>1.71845856369489</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>2.275979139690381</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>9.430649988957581</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>5.934261877015375</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N28" t="n">
-        <v>31.20111315294588</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>32.37974386144685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.9283769090587248</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>7.082754609325744</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E29">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>1.13378361035391</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2.047977132247369</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I29">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J29">
         <v>1.761420027787262</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>2.332878618182641</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>6.528911530816788</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>4.108335145626028</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N29" t="n">
-        <v>26.54880928107385</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>27.60967618569734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.020324781840899</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>7.784241487565682</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.003691553685900653</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.003945001275541318</v>
+      </c>
+      <c r="E30">
         <v>0.3752398869155092</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>1.417229512942387</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>2.559971415309212</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1260916641552339</v>
+      </c>
+      <c r="I30">
+        <v>0.934542913511079</v>
+      </c>
+      <c r="J30">
         <v>1.396247583002098</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>1.849233050998435</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>7.617063452619584</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>4.793057669897035</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N30" t="n">
-        <v>28.88555486405777</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>29.94644288931372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.9550714527696788</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>7.28641209010508</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E31">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1.417229512942387</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>2.559971415309212</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1120814792490968</v>
+      </c>
+      <c r="I31">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="J31">
         <v>2.10511174052624</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>2.788074446120718</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>7.254346145351982</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>4.564816828473363</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N31" t="n">
-        <v>29.56150455845483</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>30.50448093540601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.081129020293627</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>8.248127971563049</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.003999183159725707</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.004273751381836427</v>
+      </c>
+      <c r="E32">
         <v>0.4065098774918017</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>1.077094429836214</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1.945578275635001</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.1120814792490968</v>
+      </c>
+      <c r="I32">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="J32">
         <v>1.482170511186842</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>1.963032007982954</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>7.617063452619584</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>4.793057669897035</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N32" t="n">
-        <v>28.8255258075089</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>29.76858666698996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.173076893075801</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>8.94961484980298</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E33">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1.984121318119342</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>3.583959981432896</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.2661935132166048</v>
+      </c>
+      <c r="I33">
+        <v>1.972923928523388</v>
+      </c>
+      <c r="J33">
         <v>1.804381491879634</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>2.389778096674901</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>4.53396634084499</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>2.853010517795852</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N33" t="n">
-        <v>27.87080279643245</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>30.1100892032322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.402946575031237</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>10.70333204540281</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E34">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.814053776566255</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>3.276763411595791</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.3082240679350162</v>
+      </c>
+      <c r="I34">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="J34">
         <v>1.224401726632609</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>1.621635137029397</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>2.901738458140795</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>1.825926731389346</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N34" t="n">
-        <v>25.18740615162055</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>27.78030077953982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.477098085339441</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>11.26904726978985</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E35">
         <v>0.218889934034047</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.303851151906996</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2.355173702084475</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.3782749924657018</v>
+      </c>
+      <c r="I35">
+        <v>2.803628740533236</v>
+      </c>
+      <c r="J35">
         <v>0.6444219613855837</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>0.8534921773838929</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>3.989890379943592</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>2.510649255660349</v>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
-        <v>24.624667323845</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>27.80671890127122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.37921809173261</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>10.52230317359895</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.001538147369125272</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.001643750531475549</v>
+      </c>
+      <c r="E36">
         <v>0.1563499528814621</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1.360540332424691</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2.457572558696843</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.280203698122742</v>
+      </c>
+      <c r="I36">
+        <v>2.07676203002462</v>
+      </c>
+      <c r="J36">
         <v>0.9021907459398172</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>1.19488904833745</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>5.984835569915387</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>3.765973883490525</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>27.72541150438686</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>30.08248283569658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.8542253987505201</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>6.517039384938707</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E37">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1.2471619713893</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>2.252774845472106</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.3362444377472905</v>
+      </c>
+      <c r="I37">
+        <v>2.492114436029544</v>
+      </c>
+      <c r="J37">
         <v>0.4296146409237225</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.5689947849225954</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>6.16619422354919</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>3.880094304202359</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>22.26345337469979</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>25.0920445754338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.732616921845064</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>5.589266416943963</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E38">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>1.020405249318518</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>1.843179419022632</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.140101849061371</v>
+      </c>
+      <c r="I38">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="J38">
         <v>0.5799797652470252</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.7681429596455039</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>5.984835569915387</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>3.765973883490525</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>20.56859876587968</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>21.74727171564559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.5086793607142855</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.880806439295098</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E39">
         <v>0.437779868068094</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.6235809856946501</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>1.126387422736053</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.1821324037797823</v>
+      </c>
+      <c r="I39">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="J39">
         <v>0.343691712738978</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.4551958279380763</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>4.896683648112591</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>3.08125135921952</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N39" t="n">
-        <v>15.42761790643192</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>16.95994131858229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.3173684641191168</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.421261160376534</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E40">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.2267567220707819</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.4095954264494739</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.09807129434295973</v>
+      </c>
+      <c r="I40">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="J40">
         <v>0.3222109806927919</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.4267460886919465</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>2.357662497239395</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>1.483565469253844</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>8.249365389344941</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>9.07449347988875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1705484737088712</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.301145016090193</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E41">
         <v>0.437779868068094</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.2267567220707819</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.4095954264494739</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.0700509245306855</v>
+      </c>
+      <c r="I41">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="J41">
         <v>0.343691712738978</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.4551958279380763</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>2.720379804506995</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>1.711806310677511</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>7.781205974882526</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>8.370743095773946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.09936302381299453</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.7580584006786345</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E42">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.1700675415530864</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.05604073962454841</v>
+      </c>
+      <c r="I42">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="J42">
         <v>0.3222109806927919</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.4267460886919465</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>1.813586536337995</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>1.141204207118341</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>5.291054309123835</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>5.762616419813067</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.07563454051436899</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.5770295288747818</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E43">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.1133783610353909</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43">
         <v>0.2148073204618612</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.2844973924612977</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>3.264455765408394</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>2.054167572813014</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>6.978233915094551</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>6.978360638889372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.05783817804039982</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.4412578750218916</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E44">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.1133783610353909</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.0140101849061371</v>
+      </c>
+      <c r="I44">
+        <v>0.103838101501231</v>
+      </c>
+      <c r="J44">
         <v>0.343691712738978</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.4551958279380763</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>4.17124903357739</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>2.624769676372185</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>8.5069112380994</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>8.624822886404178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.1749975643273635</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.335087929553416</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.001538147369125272</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.001643750531475549</v>
+      </c>
+      <c r="E45">
         <v>0.1563499528814621</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>0.4535134441415637</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.8191908528989478</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.0700509245306855</v>
+      </c>
+      <c r="I45">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="J45">
         <v>0.4081339088775364</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>0.5405450456764656</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>6.89162883808438</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>4.336575987049695</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>15.11756167085995</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>15.70690870605914</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.3099533130882963</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2.364689637937831</v>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1.13378361035391</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>2.047977132247369</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.1681222188736453</v>
+      </c>
+      <c r="I46">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="J46">
         <v>0.7088641575241421</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>0.9388413951222825</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>15.05276825160537</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>9.471994919082229</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N46" t="n">
-        <v>32.23663582480449</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>33.65081526169291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.9150296372032485</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6.980925868936079</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E47">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.303851151906996</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>2.355173702084475</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.4763462868086614</v>
+      </c>
+      <c r="I47">
+        <v>3.530495451041853</v>
+      </c>
+      <c r="J47">
         <v>1.525131975279215</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>2.019931486475214</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>15.41548555887296</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>9.700235760505899</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N47" t="n">
-        <v>40.60689504022707</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>44.61390574313735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.09299326194294</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>8.338642407464976</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.004614442107375816</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.004931251594426647</v>
+      </c>
+      <c r="E48">
         <v>0.4690498586443865</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>0.8503377077654322</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1.535982849185527</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.3082240679350162</v>
+      </c>
+      <c r="I48">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="J48">
         <v>1.396247583002098</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>1.849233050998435</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>11.42559517892938</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>7.18958650484555</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N48" t="n">
-        <v>34.4985551912912</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>37.09153430174036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.389599303175759</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>10.60150330501314</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.001230517895300218</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.001315000425180439</v>
+      </c>
+      <c r="E49">
         <v>0.1250799623051697</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1.587297054495473</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>2.867167985146317</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.280203698122742</v>
+      </c>
+      <c r="I49">
+        <v>2.07676203002462</v>
+      </c>
+      <c r="J49">
         <v>1.267363190724981</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>1.678534615521656</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>10.33744325712658</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>6.504863980574545</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N49" t="n">
-        <v>36.42933764125995</v>
+      <c r="P49">
+        <v>38.78638785193719</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.9016823653477711</v>
+        <v>1.73317388788404</v>
       </c>
       <c r="C2">
-        <v>6.879097128546417</v>
+        <v>13.22269567822394</v>
       </c>
       <c r="D2">
-        <v>0.003945001275541318</v>
+        <v>0.007582906643405767</v>
       </c>
       <c r="E2">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="F2">
-        <v>1.2471619713893</v>
+        <v>2.397239477939914</v>
       </c>
       <c r="G2">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="H2">
-        <v>0.2241629584981936</v>
+        <v>0.4308761058558094</v>
       </c>
       <c r="I2">
-        <v>1.661409624019695</v>
+        <v>3.193487959942049</v>
       </c>
       <c r="J2">
-        <v>1.374766850955912</v>
+        <v>2.642515923094896</v>
       </c>
       <c r="K2">
-        <v>1.820783311752305</v>
+        <v>3.499829000434072</v>
       </c>
       <c r="L2">
-        <v>10.70016056439417</v>
+        <v>20.56737449802713</v>
       </c>
       <c r="M2">
-        <v>6.733104821998213</v>
+        <v>12.94207573569716</v>
       </c>
       <c r="N2">
-        <v>0.1074533394025665</v>
+        <v>0.2065420475941549</v>
       </c>
       <c r="O2">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="P2">
-        <v>34.72832508481332</v>
+        <v>66.75324761811422</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.6510502605060389</v>
+        <v>1.251419961811009</v>
       </c>
       <c r="C3">
-        <v>4.966979670118215</v>
+        <v>9.547308228191303</v>
       </c>
       <c r="D3">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E3">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F3">
-        <v>1.13378361035391</v>
+        <v>2.179308616309012</v>
       </c>
       <c r="G3">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="H3">
-        <v>0.0700509245306855</v>
+        <v>0.1346487830799404</v>
       </c>
       <c r="I3">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="J3">
-        <v>1.654016367556332</v>
+        <v>3.179276969973547</v>
       </c>
       <c r="K3">
-        <v>2.190629921951992</v>
+        <v>4.210731766147243</v>
       </c>
       <c r="L3">
-        <v>8.886574028056177</v>
+        <v>17.08137882039541</v>
       </c>
       <c r="M3">
-        <v>5.59190061487987</v>
+        <v>10.74850357710442</v>
       </c>
       <c r="N3">
-        <v>0.09402167197724577</v>
+        <v>0.1807242916448856</v>
       </c>
       <c r="O3">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="P3">
-        <v>28.48132298881719</v>
+        <v>54.74553700245701</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.7711757072053309</v>
+        <v>1.482319772532402</v>
       </c>
       <c r="C4">
-        <v>5.883438333625223</v>
+        <v>11.3088844616389</v>
       </c>
       <c r="D4">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E4">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F4">
-        <v>1.417229512942387</v>
+        <v>2.724135770386265</v>
       </c>
       <c r="G4">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="H4">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I4">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J4">
-        <v>1.568093439371587</v>
+        <v>3.014119724780117</v>
       </c>
       <c r="K4">
-        <v>2.076830964967473</v>
+        <v>3.991992453620113</v>
       </c>
       <c r="L4">
-        <v>8.705215374422384</v>
+        <v>16.73277925263225</v>
       </c>
       <c r="M4">
-        <v>5.477780194168037</v>
+        <v>10.52914636124515</v>
       </c>
       <c r="N4">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O4">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P4">
-        <v>29.7792164330545</v>
+        <v>57.24029026952392</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.9699017548313194</v>
+        <v>1.864302175454214</v>
       </c>
       <c r="C5">
-        <v>7.39955513498249</v>
+        <v>14.2230969959843</v>
       </c>
       <c r="D5">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E5">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F5">
-        <v>1.303851151906996</v>
+        <v>2.506204908755364</v>
       </c>
       <c r="G5">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="H5">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I5">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J5">
-        <v>1.503651243233029</v>
+        <v>2.890251790885043</v>
       </c>
       <c r="K5">
-        <v>1.991481747229084</v>
+        <v>3.827937969224766</v>
       </c>
       <c r="L5">
-        <v>8.161139413520983</v>
+        <v>15.68698054934273</v>
       </c>
       <c r="M5">
-        <v>5.135418932032534</v>
+        <v>9.871074713667328</v>
       </c>
       <c r="N5">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O5">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P5">
-        <v>30.20285205222894</v>
+        <v>58.0545838848233</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.9891811475114529</v>
+        <v>1.901360169767524</v>
       </c>
       <c r="C6">
-        <v>7.54664109332312</v>
+        <v>14.50581910752528</v>
       </c>
       <c r="D6">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E6">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F6">
-        <v>1.360540332424691</v>
+        <v>2.615170339570813</v>
       </c>
       <c r="G6">
-        <v>2.457572558696843</v>
+        <v>4.723837073902315</v>
       </c>
       <c r="H6">
-        <v>0.140101849061371</v>
+        <v>0.2692975661598808</v>
       </c>
       <c r="I6">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="J6">
-        <v>1.976227348249123</v>
+        <v>3.798616639448914</v>
       </c>
       <c r="K6">
-        <v>2.617376010643939</v>
+        <v>5.031004188123978</v>
       </c>
       <c r="L6">
-        <v>9.06793268168998</v>
+        <v>17.42997838815858</v>
       </c>
       <c r="M6">
-        <v>5.706021035591704</v>
+        <v>10.9678607929637</v>
       </c>
       <c r="N6">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O6">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P6">
-        <v>33.61937531888486</v>
+        <v>64.62167351713794</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.8838860028738023</v>
+        <v>1.698966508517906</v>
       </c>
       <c r="C7">
-        <v>6.743325474693526</v>
+        <v>12.96172142141689</v>
       </c>
       <c r="D7">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E7">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F7">
-        <v>1.700675415530864</v>
+        <v>3.268962924463516</v>
       </c>
       <c r="G7">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="H7">
-        <v>0.1541120339675081</v>
+        <v>0.2962273227758689</v>
       </c>
       <c r="I7">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="J7">
-        <v>2.169553936664799</v>
+        <v>4.170220441134135</v>
       </c>
       <c r="K7">
-        <v>2.873423663859107</v>
+        <v>5.523167641310019</v>
       </c>
       <c r="L7">
-        <v>8.161139413520983</v>
+        <v>15.68698054934273</v>
       </c>
       <c r="M7">
-        <v>5.135418932032534</v>
+        <v>9.871074713667328</v>
       </c>
       <c r="N7">
-        <v>0.2149066788051331</v>
+        <v>0.4130840951883098</v>
       </c>
       <c r="O7">
-        <v>0.8931648296912311</v>
+        <v>1.716801858268774</v>
       </c>
       <c r="P7">
-        <v>33.39658112198479</v>
+        <v>64.19342838417434</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.9743508454498122</v>
+        <v>1.872854020295747</v>
       </c>
       <c r="C8">
-        <v>7.433498048445712</v>
+        <v>14.28834056018607</v>
       </c>
       <c r="D8">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E8">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F8">
-        <v>2.210878040190123</v>
+        <v>4.249651801802573</v>
       </c>
       <c r="G8">
-        <v>3.993555407882371</v>
+        <v>7.676235245091265</v>
       </c>
       <c r="H8">
-        <v>0.1681222188736453</v>
+        <v>0.3231570793918569</v>
       </c>
       <c r="I8">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="J8">
-        <v>1.503651243233029</v>
+        <v>2.890251790885043</v>
       </c>
       <c r="K8">
-        <v>1.991481747229084</v>
+        <v>3.827937969224766</v>
       </c>
       <c r="L8">
-        <v>6.710270184450586</v>
+        <v>12.89818400723736</v>
       </c>
       <c r="M8">
-        <v>4.222455566337862</v>
+        <v>8.116216986793138</v>
       </c>
       <c r="N8">
-        <v>0.1074533394025665</v>
+        <v>0.2065420475941549</v>
       </c>
       <c r="O8">
-        <v>0.4465824148456156</v>
+        <v>0.8584009291343869</v>
       </c>
       <c r="P8">
-        <v>31.29274494049847</v>
+        <v>60.14952770000005</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.069264778644314</v>
+        <v>2.05529337691512</v>
       </c>
       <c r="C9">
-        <v>8.157613535661124</v>
+        <v>15.68020326315701</v>
       </c>
       <c r="D9">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E9">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F9">
-        <v>2.040810498637037</v>
+        <v>3.92275550935622</v>
       </c>
       <c r="G9">
-        <v>3.686358838045265</v>
+        <v>7.085755610853475</v>
       </c>
       <c r="H9">
-        <v>0.2942138830288791</v>
+        <v>0.5655248889357498</v>
       </c>
       <c r="I9">
-        <v>2.180600131525851</v>
+        <v>4.191452947423941</v>
       </c>
       <c r="J9">
-        <v>1.761420027787262</v>
+        <v>3.385723526465337</v>
       </c>
       <c r="K9">
-        <v>2.332878618182641</v>
+        <v>4.484155906806154</v>
       </c>
       <c r="L9">
-        <v>5.259400955380189</v>
+        <v>10.10938746513198</v>
       </c>
       <c r="M9">
-        <v>3.309492200643189</v>
+        <v>6.361359259918943</v>
       </c>
       <c r="N9">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O9">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P9">
-        <v>30.62791825803638</v>
+        <v>58.87162731035736</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.523072021730529</v>
+        <v>2.927581550751495</v>
       </c>
       <c r="C10">
-        <v>11.61979070890981</v>
+        <v>22.33504681173682</v>
       </c>
       <c r="D10">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E10">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F10">
-        <v>1.700675415530864</v>
+        <v>3.268962924463516</v>
       </c>
       <c r="G10">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="H10">
-        <v>0.2521833283104679</v>
+        <v>0.4847356190877856</v>
       </c>
       <c r="I10">
-        <v>1.869085827022158</v>
+        <v>3.592673954934807</v>
       </c>
       <c r="J10">
-        <v>1.482170511186842</v>
+        <v>2.848962479586686</v>
       </c>
       <c r="K10">
-        <v>1.963032007982954</v>
+        <v>3.773253141092985</v>
       </c>
       <c r="L10">
-        <v>4.17124903357739</v>
+        <v>8.017790058552954</v>
       </c>
       <c r="M10">
-        <v>2.624769676372185</v>
+        <v>5.045215964763301</v>
       </c>
       <c r="N10">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O10">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P10">
-        <v>30.83940077226163</v>
+        <v>59.27812962811969</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,43 +930,43 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.518622931112036</v>
+        <v>2.919029705909962</v>
       </c>
       <c r="C11">
-        <v>11.58584779544659</v>
+        <v>22.26980324753506</v>
       </c>
       <c r="D11">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E11">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F11">
-        <v>1.417229512942387</v>
+        <v>2.724135770386265</v>
       </c>
       <c r="G11">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="H11">
-        <v>0.3782749924657018</v>
+        <v>0.7271034286316781</v>
       </c>
       <c r="I11">
-        <v>2.803628740533236</v>
+        <v>5.38901093240221</v>
       </c>
       <c r="J11">
-        <v>0.859229281847445</v>
+        <v>1.65157245193431</v>
       </c>
       <c r="K11">
-        <v>1.137989569845191</v>
+        <v>2.187393125271295</v>
       </c>
       <c r="L11">
-        <v>4.352607687211192</v>
+        <v>8.366389626316124</v>
       </c>
       <c r="M11">
-        <v>2.738890097084019</v>
+        <v>5.264573180622574</v>
       </c>
       <c r="P11">
-        <v>29.60508194925771</v>
+        <v>56.90557668090854</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,43 +974,43 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.180492044106621</v>
+        <v>2.269089497953446</v>
       </c>
       <c r="C12">
-        <v>9.006186372241688</v>
+        <v>17.31129236820109</v>
       </c>
       <c r="D12">
-        <v>0.004931251594426647</v>
+        <v>0.009478633304257208</v>
       </c>
       <c r="E12">
-        <v>0.4690498586443865</v>
+        <v>0.9015868540410066</v>
       </c>
       <c r="F12">
-        <v>1.020405249318518</v>
+        <v>1.96137775467811</v>
       </c>
       <c r="G12">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="H12">
-        <v>0.3222342528411533</v>
+        <v>0.6193844021677259</v>
       </c>
       <c r="I12">
-        <v>2.388276334528312</v>
+        <v>4.590638942416698</v>
       </c>
       <c r="J12">
-        <v>1.009594406170748</v>
+        <v>1.940597631022814</v>
       </c>
       <c r="K12">
-        <v>1.337137744568099</v>
+        <v>2.570186922193772</v>
       </c>
       <c r="L12">
-        <v>4.17124903357739</v>
+        <v>8.017790058552954</v>
       </c>
       <c r="M12">
-        <v>2.624769676372185</v>
+        <v>5.045215964763301</v>
       </c>
       <c r="P12">
-        <v>25.37750564298616</v>
+        <v>48.77951683472191</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,49 +1018,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.946173271532694</v>
+        <v>1.81869233629937</v>
       </c>
       <c r="C13">
-        <v>7.21852626317864</v>
+        <v>13.87513132024157</v>
       </c>
       <c r="D13">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E13">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F13">
-        <v>1.2471619713893</v>
+        <v>2.397239477939914</v>
       </c>
       <c r="G13">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="H13">
-        <v>0.2241629584981936</v>
+        <v>0.4308761058558094</v>
       </c>
       <c r="I13">
-        <v>1.661409624019695</v>
+        <v>3.193487959942049</v>
       </c>
       <c r="J13">
-        <v>0.6014604972932114</v>
+        <v>1.156100716354017</v>
       </c>
       <c r="K13">
-        <v>0.7965926988916336</v>
+        <v>1.531175187689907</v>
       </c>
       <c r="L13">
-        <v>7.435704798985785</v>
+        <v>14.29258227829004</v>
       </c>
       <c r="M13">
-        <v>4.678937249185199</v>
+        <v>8.99364585023023</v>
       </c>
       <c r="N13">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O13">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P13">
-        <v>27.47974479523595</v>
+        <v>52.82034778006429</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.7074054083402747</v>
+        <v>1.359743329803762</v>
       </c>
       <c r="C14">
-        <v>5.396923240652368</v>
+        <v>10.3737267080803</v>
       </c>
       <c r="D14">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E14">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F14">
-        <v>0.6802701662123456</v>
+        <v>1.307585169785406</v>
       </c>
       <c r="G14">
-        <v>1.228786279348422</v>
+        <v>2.361918536951157</v>
       </c>
       <c r="H14">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I14">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J14">
-        <v>0.4510953729699086</v>
+        <v>0.8670755372655129</v>
       </c>
       <c r="K14">
-        <v>0.5974445241687252</v>
+        <v>1.14838139076743</v>
       </c>
       <c r="L14">
-        <v>7.617063452619584</v>
+        <v>14.64118184605321</v>
       </c>
       <c r="M14">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="P14">
-        <v>22.78547061733568</v>
+        <v>43.79722196505839</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.4656714847355267</v>
+        <v>0.8950930934137963</v>
       </c>
       <c r="C15">
-        <v>3.552691609150615</v>
+        <v>6.82882638645118</v>
       </c>
       <c r="D15">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E15">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F15">
-        <v>0.6802701662123456</v>
+        <v>1.307585169785406</v>
       </c>
       <c r="G15">
-        <v>1.228786279348422</v>
+        <v>2.361918536951157</v>
       </c>
       <c r="H15">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I15">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J15">
-        <v>0.5370183011546531</v>
+        <v>1.032232782458944</v>
       </c>
       <c r="K15">
-        <v>0.7112434811532443</v>
+        <v>1.36712070329456</v>
       </c>
       <c r="L15">
-        <v>4.715324994478791</v>
+        <v>9.063588761842466</v>
       </c>
       <c r="M15">
-        <v>2.967130938507688</v>
+        <v>5.703287612341122</v>
       </c>
       <c r="P15">
-        <v>16.26635797991606</v>
+        <v>31.26647252426979</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.2328357423677634</v>
+        <v>0.4475465467068981</v>
       </c>
       <c r="C16">
-        <v>1.776345804575308</v>
+        <v>3.41441319322559</v>
       </c>
       <c r="D16">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E16">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F16">
-        <v>0.3968242636238681</v>
+        <v>0.7627580157081537</v>
       </c>
       <c r="G16">
-        <v>0.7167919962865793</v>
+        <v>1.377785813221509</v>
       </c>
       <c r="H16">
-        <v>0.09807129434295973</v>
+        <v>0.1885082963119165</v>
       </c>
       <c r="I16">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="J16">
-        <v>0.2362880525080473</v>
+        <v>0.4541824242819353</v>
       </c>
       <c r="K16">
-        <v>0.3129471317074274</v>
+        <v>0.6015331094496061</v>
       </c>
       <c r="L16">
-        <v>3.627173072675991</v>
+        <v>6.971991355263432</v>
       </c>
       <c r="M16">
-        <v>2.282408414236682</v>
+        <v>4.38714431718548</v>
       </c>
       <c r="P16">
-        <v>10.69094114897653</v>
+        <v>20.54965334623633</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1690654435027072</v>
+        <v>0.3249701039782572</v>
       </c>
       <c r="C17">
-        <v>1.289830711602453</v>
+        <v>2.479255439666989</v>
       </c>
       <c r="D17">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E17">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F17">
-        <v>0.05668918051769547</v>
+        <v>0.1089654308154506</v>
       </c>
       <c r="G17">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="H17">
-        <v>0.0700509245306855</v>
+        <v>0.1346487830799404</v>
       </c>
       <c r="I17">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="J17">
-        <v>0.2577687845542335</v>
+        <v>0.4954717355802931</v>
       </c>
       <c r="K17">
-        <v>0.3413968709535573</v>
+        <v>0.6562179375813884</v>
       </c>
       <c r="L17">
-        <v>2.357662497239395</v>
+        <v>4.531794380921233</v>
       </c>
       <c r="M17">
-        <v>1.483565469253844</v>
+        <v>2.851643806170561</v>
       </c>
       <c r="P17">
-        <v>6.900409171733795</v>
+        <v>13.26366074327274</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,43 +1244,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.09936302381299453</v>
+        <v>0.1909912014609056</v>
       </c>
       <c r="C18">
-        <v>0.7580584006786345</v>
+        <v>1.457106267172705</v>
       </c>
       <c r="D18">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E18">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F18">
-        <v>0.2267567220707819</v>
+        <v>0.4358617232618023</v>
       </c>
       <c r="G18">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="H18">
-        <v>0.04203055471841131</v>
+        <v>0.08078926984796422</v>
       </c>
       <c r="I18">
-        <v>0.3115143045036929</v>
+        <v>0.5987789924891342</v>
       </c>
       <c r="J18">
-        <v>0.2148073204618612</v>
+        <v>0.4128931129835776</v>
       </c>
       <c r="K18">
-        <v>0.2844973924612977</v>
+        <v>0.5468482813178237</v>
       </c>
       <c r="L18">
-        <v>2.357662497239395</v>
+        <v>4.531794380921233</v>
       </c>
       <c r="M18">
-        <v>1.483565469253844</v>
+        <v>2.851643806170561</v>
       </c>
       <c r="P18">
-        <v>6.630233481206613</v>
+        <v>12.74434100279834</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,37 +1288,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.07860060092669721</v>
+        <v>0.1510825922004179</v>
       </c>
       <c r="C19">
-        <v>0.5996581378502626</v>
+        <v>1.152636300897811</v>
       </c>
       <c r="D19">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E19">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F19">
-        <v>0.05668918051769547</v>
+        <v>0.1089654308154506</v>
       </c>
       <c r="G19">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="J19">
-        <v>0.2148073204618612</v>
+        <v>0.4128931129835776</v>
       </c>
       <c r="K19">
-        <v>0.2844973924612977</v>
+        <v>0.5468482813178237</v>
       </c>
       <c r="L19">
-        <v>2.539021150873196</v>
+        <v>4.880393948684405</v>
       </c>
       <c r="M19">
-        <v>1.597685889965677</v>
+        <v>3.071001022029836</v>
       </c>
       <c r="P19">
-        <v>5.662950973764581</v>
+        <v>10.88507342861336</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1326,43 +1326,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.06970241968971258</v>
+        <v>0.1339789025173518</v>
       </c>
       <c r="C20">
-        <v>0.5317723109238183</v>
+        <v>1.022149172494285</v>
       </c>
       <c r="D20">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E20">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F20">
-        <v>0.2267567220707819</v>
+        <v>0.4358617232618023</v>
       </c>
       <c r="G20">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="H20">
-        <v>0.0140101849061371</v>
+        <v>0.02692975661598809</v>
       </c>
       <c r="I20">
-        <v>0.103838101501231</v>
+        <v>0.199592997496378</v>
       </c>
       <c r="J20">
-        <v>0.3651724447851641</v>
+        <v>0.7019182920720819</v>
       </c>
       <c r="K20">
-        <v>0.4836455671842062</v>
+        <v>0.9296420782403003</v>
       </c>
       <c r="L20">
-        <v>3.44581441904219</v>
+        <v>6.623391787500261</v>
       </c>
       <c r="M20">
-        <v>2.168287993524848</v>
+        <v>4.167787101326207</v>
       </c>
       <c r="P20">
-        <v>7.913391812125325</v>
+        <v>15.21077108797743</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,43 +1370,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1438539299979175</v>
+        <v>0.2765096498762365</v>
       </c>
       <c r="C21">
-        <v>1.097487535310859</v>
+        <v>2.109541909190332</v>
       </c>
       <c r="D21">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E21">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F21">
-        <v>0.3401350831061728</v>
+        <v>0.6537925848927032</v>
       </c>
       <c r="G21">
-        <v>0.6143931396742108</v>
+        <v>1.180959268475579</v>
       </c>
       <c r="H21">
-        <v>0.04203055471841131</v>
+        <v>0.08078926984796422</v>
       </c>
       <c r="I21">
-        <v>0.3115143045036929</v>
+        <v>0.5987789924891342</v>
       </c>
       <c r="J21">
-        <v>0.343691712738978</v>
+        <v>0.6606289807737241</v>
       </c>
       <c r="K21">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="L21">
-        <v>7.798422106253384</v>
+        <v>14.98978141381639</v>
       </c>
       <c r="M21">
-        <v>4.907178090608866</v>
+        <v>9.432360281948778</v>
       </c>
       <c r="P21">
-        <v>16.14869850689833</v>
+        <v>31.04031269888841</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,43 +1414,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.3781727025718449</v>
+        <v>0.7269068115303127</v>
       </c>
       <c r="C22">
-        <v>2.885147644373907</v>
+        <v>5.545702957149842</v>
       </c>
       <c r="D22">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E22">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F22">
-        <v>1.13378361035391</v>
+        <v>2.179308616309012</v>
       </c>
       <c r="G22">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="H22">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I22">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J22">
-        <v>0.5584990332008393</v>
+        <v>1.073522093757302</v>
       </c>
       <c r="K22">
-        <v>0.7396932203993741</v>
+        <v>1.421805531426342</v>
       </c>
       <c r="L22">
-        <v>14.69005094433777</v>
+        <v>28.23656498881691</v>
       </c>
       <c r="M22">
-        <v>9.243754077658563</v>
+        <v>17.7679344846012</v>
       </c>
       <c r="P22">
-        <v>32.83250916485765</v>
+        <v>63.10919426298986</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,49 +1458,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.8690557008121611</v>
+        <v>1.670460359046131</v>
       </c>
       <c r="C23">
-        <v>6.630182429816114</v>
+        <v>12.74424287407768</v>
       </c>
       <c r="D23">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E23">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F23">
-        <v>0.9637160688008231</v>
+        <v>1.85241232386266</v>
       </c>
       <c r="G23">
-        <v>1.740780562410264</v>
+        <v>3.346051260680807</v>
       </c>
       <c r="H23">
-        <v>0.4763462868086614</v>
+        <v>0.9156117249435948</v>
       </c>
       <c r="I23">
-        <v>3.530495451041853</v>
+        <v>6.786161914876858</v>
       </c>
       <c r="J23">
-        <v>1.503651243233029</v>
+        <v>2.890251790885043</v>
       </c>
       <c r="K23">
-        <v>1.991481747229084</v>
+        <v>3.827937969224766</v>
       </c>
       <c r="L23">
-        <v>13.42054036890117</v>
+        <v>25.79636801447472</v>
       </c>
       <c r="M23">
-        <v>8.444911132675724</v>
+        <v>16.23243397358628</v>
       </c>
       <c r="N23">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O23">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P23">
-        <v>40.03777131294851</v>
+        <v>76.95882988896091</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1508,49 +1508,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.124136896272386</v>
+        <v>2.160766129960693</v>
       </c>
       <c r="C24">
-        <v>8.576242801707535</v>
+        <v>16.4848738883121</v>
       </c>
       <c r="D24">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E24">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F24">
-        <v>0.9637160688008231</v>
+        <v>1.85241232386266</v>
       </c>
       <c r="G24">
-        <v>1.740780562410264</v>
+        <v>3.346051260680807</v>
       </c>
       <c r="H24">
-        <v>0.2942138830288791</v>
+        <v>0.5655248889357498</v>
       </c>
       <c r="I24">
-        <v>2.180600131525851</v>
+        <v>4.191452947423941</v>
       </c>
       <c r="J24">
-        <v>1.353286118909726</v>
+        <v>2.601226611796539</v>
       </c>
       <c r="K24">
-        <v>1.792333572506176</v>
+        <v>3.44514417230229</v>
       </c>
       <c r="L24">
-        <v>10.88151921802798</v>
+        <v>20.9159740657903</v>
       </c>
       <c r="M24">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="N24">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O24">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P24">
-        <v>36.25226355780188</v>
+        <v>69.68249462308025</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1558,49 +1558,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.321379913692211</v>
+        <v>2.539897917935326</v>
       </c>
       <c r="C25">
-        <v>10.08104529857706</v>
+        <v>19.37733856792357</v>
       </c>
       <c r="D25">
-        <v>0.001643750531475549</v>
+        <v>0.003159544434752402</v>
       </c>
       <c r="E25">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="F25">
-        <v>1.643986235013169</v>
+        <v>3.159997493648066</v>
       </c>
       <c r="G25">
-        <v>2.969566841758686</v>
+        <v>5.707969797631965</v>
       </c>
       <c r="H25">
-        <v>0.2661935132166048</v>
+        <v>0.5116653757037736</v>
       </c>
       <c r="I25">
-        <v>1.972923928523388</v>
+        <v>3.792266952431184</v>
       </c>
       <c r="J25">
-        <v>1.138478798447864</v>
+        <v>2.188333498812961</v>
       </c>
       <c r="K25">
-        <v>1.507836180044878</v>
+        <v>2.898295890984466</v>
       </c>
       <c r="L25">
-        <v>8.705215374422384</v>
+        <v>16.73277925263225</v>
       </c>
       <c r="M25">
-        <v>5.477780194168037</v>
+        <v>10.52914636124515</v>
       </c>
       <c r="N25">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O25">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P25">
-        <v>35.65792679696336</v>
+        <v>68.54008683727687</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1608,49 +1608,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.076679929675135</v>
+        <v>2.069546451651008</v>
       </c>
       <c r="C26">
-        <v>8.214185058099828</v>
+        <v>15.78894253682661</v>
       </c>
       <c r="D26">
-        <v>0.005260001700721757</v>
+        <v>0.01011054219120769</v>
       </c>
       <c r="E26">
-        <v>0.500319849220679</v>
+        <v>0.9616926443104069</v>
       </c>
       <c r="F26">
-        <v>1.473918693460083</v>
+        <v>2.833101201201715</v>
       </c>
       <c r="G26">
-        <v>2.66237027192158</v>
+        <v>5.117490163394175</v>
       </c>
       <c r="H26">
-        <v>0.2661935132166048</v>
+        <v>0.5116653757037736</v>
       </c>
       <c r="I26">
-        <v>1.972923928523388</v>
+        <v>3.792266952431184</v>
       </c>
       <c r="J26">
-        <v>1.71845856369489</v>
+        <v>3.30314490386862</v>
       </c>
       <c r="K26">
-        <v>2.275979139690381</v>
+        <v>4.37478625054259</v>
       </c>
       <c r="L26">
-        <v>13.05782306163358</v>
+        <v>25.09916887894836</v>
       </c>
       <c r="M26">
-        <v>8.216670291252056</v>
+        <v>15.79371954186773</v>
       </c>
       <c r="N26">
-        <v>0.09402167197724577</v>
+        <v>0.1807242916448856</v>
       </c>
       <c r="O26">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="P26">
-        <v>41.92556358705609</v>
+        <v>80.58746054757485</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1658,49 +1658,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.778590858236151</v>
+        <v>1.49657284726829</v>
       </c>
       <c r="C27">
-        <v>5.940009856063925</v>
+        <v>11.4176237353085</v>
       </c>
       <c r="D27">
-        <v>0.003945001275541318</v>
+        <v>0.007582906643405767</v>
       </c>
       <c r="E27">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="F27">
-        <v>1.360540332424691</v>
+        <v>2.615170339570813</v>
       </c>
       <c r="G27">
-        <v>2.457572558696843</v>
+        <v>4.723837073902315</v>
       </c>
       <c r="H27">
-        <v>0.09807129434295973</v>
+        <v>0.1885082963119165</v>
       </c>
       <c r="I27">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="J27">
-        <v>2.083631008480054</v>
+        <v>4.005063195940703</v>
       </c>
       <c r="K27">
-        <v>2.759624706874587</v>
+        <v>5.30442832878289</v>
       </c>
       <c r="L27">
-        <v>10.88151921802798</v>
+        <v>20.9159740657903</v>
       </c>
       <c r="M27">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="N27">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O27">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P27">
-        <v>34.72836349024304</v>
+        <v>66.75332143932944</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1708,49 +1708,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.840878126895043</v>
+        <v>1.616298675049754</v>
       </c>
       <c r="C28">
-        <v>6.41521064454904</v>
+        <v>12.33103363413318</v>
       </c>
       <c r="D28">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E28">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F28">
-        <v>1.530607873977778</v>
+        <v>2.942066632017165</v>
       </c>
       <c r="G28">
-        <v>2.764769128533949</v>
+        <v>5.314316708140104</v>
       </c>
       <c r="H28">
-        <v>0.140101849061371</v>
+        <v>0.2692975661598808</v>
       </c>
       <c r="I28">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="J28">
-        <v>1.71845856369489</v>
+        <v>3.30314490386862</v>
       </c>
       <c r="K28">
-        <v>2.275979139690381</v>
+        <v>4.37478625054259</v>
       </c>
       <c r="L28">
-        <v>9.430649988957581</v>
+        <v>18.12717752368493</v>
       </c>
       <c r="M28">
-        <v>5.934261877015375</v>
+        <v>11.40657522468224</v>
       </c>
       <c r="N28">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O28">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P28">
-        <v>32.37974386144685</v>
+        <v>62.23890885942778</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1758,49 +1758,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.9283769090587248</v>
+        <v>1.784484956933239</v>
       </c>
       <c r="C29">
-        <v>7.082754609325744</v>
+        <v>13.61415706343452</v>
       </c>
       <c r="D29">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E29">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F29">
-        <v>1.13378361035391</v>
+        <v>2.179308616309012</v>
       </c>
       <c r="G29">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="H29">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I29">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J29">
-        <v>1.761420027787262</v>
+        <v>3.385723526465337</v>
       </c>
       <c r="K29">
-        <v>2.332878618182641</v>
+        <v>4.484155906806154</v>
       </c>
       <c r="L29">
-        <v>6.528911530816788</v>
+        <v>12.54958443947418</v>
       </c>
       <c r="M29">
-        <v>4.108335145626028</v>
+        <v>7.896859770933863</v>
       </c>
       <c r="N29">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O29">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P29">
-        <v>27.60967618569734</v>
+        <v>53.07009614137034</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1808,49 +1808,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.020324781840899</v>
+        <v>1.961223083658255</v>
       </c>
       <c r="C30">
-        <v>7.784241487565682</v>
+        <v>14.96252405693763</v>
       </c>
       <c r="D30">
-        <v>0.003945001275541318</v>
+        <v>0.007582906643405767</v>
       </c>
       <c r="E30">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="F30">
-        <v>1.417229512942387</v>
+        <v>2.724135770386265</v>
       </c>
       <c r="G30">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="H30">
-        <v>0.1260916641552339</v>
+        <v>0.2423678095438928</v>
       </c>
       <c r="I30">
-        <v>0.934542913511079</v>
+        <v>1.796336977467403</v>
       </c>
       <c r="J30">
-        <v>1.396247583002098</v>
+        <v>2.683805234393254</v>
       </c>
       <c r="K30">
-        <v>1.849233050998435</v>
+        <v>3.554513828565854</v>
       </c>
       <c r="L30">
-        <v>7.617063452619584</v>
+        <v>14.64118184605321</v>
       </c>
       <c r="M30">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="N30">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O30">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P30">
-        <v>29.94644288931372</v>
+        <v>57.56172555371079</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1858,49 +1858,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.9550714527696788</v>
+        <v>1.835796025982436</v>
       </c>
       <c r="C31">
-        <v>7.28641209010508</v>
+        <v>14.0056184486451</v>
       </c>
       <c r="D31">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E31">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F31">
-        <v>1.417229512942387</v>
+        <v>2.724135770386265</v>
       </c>
       <c r="G31">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="H31">
-        <v>0.1120814792490968</v>
+        <v>0.2154380529279047</v>
       </c>
       <c r="I31">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="J31">
-        <v>2.10511174052624</v>
+        <v>4.046352507239059</v>
       </c>
       <c r="K31">
-        <v>2.788074446120718</v>
+        <v>5.359113156914672</v>
       </c>
       <c r="L31">
-        <v>7.254346145351982</v>
+        <v>13.94398271052686</v>
       </c>
       <c r="M31">
-        <v>4.564816828473363</v>
+        <v>8.77428863437096</v>
       </c>
       <c r="N31">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O31">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P31">
-        <v>30.50448093540601</v>
+        <v>58.63436155847504</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1908,49 +1908,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.081129020293627</v>
+        <v>2.07809829649254</v>
       </c>
       <c r="C32">
-        <v>8.248127971563049</v>
+        <v>15.85418610102838</v>
       </c>
       <c r="D32">
-        <v>0.004273751381836427</v>
+        <v>0.008214815530356249</v>
       </c>
       <c r="E32">
-        <v>0.4065098774918017</v>
+        <v>0.7813752735022055</v>
       </c>
       <c r="F32">
-        <v>1.077094429836214</v>
+        <v>2.07034318549356</v>
       </c>
       <c r="G32">
-        <v>1.945578275635001</v>
+        <v>3.739704350172667</v>
       </c>
       <c r="H32">
-        <v>0.1120814792490968</v>
+        <v>0.2154380529279047</v>
       </c>
       <c r="I32">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="J32">
-        <v>1.482170511186842</v>
+        <v>2.848962479586686</v>
       </c>
       <c r="K32">
-        <v>1.963032007982954</v>
+        <v>3.773253141092985</v>
       </c>
       <c r="L32">
-        <v>7.617063452619584</v>
+        <v>14.64118184605321</v>
       </c>
       <c r="M32">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="N32">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O32">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P32">
-        <v>29.76858666698996</v>
+        <v>57.21985820421423</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1958,49 +1958,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.173076893075801</v>
+        <v>2.254836423217559</v>
       </c>
       <c r="C33">
-        <v>8.94961484980298</v>
+        <v>17.20255309453149</v>
       </c>
       <c r="D33">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E33">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F33">
-        <v>1.984121318119342</v>
+        <v>3.813790078540769</v>
       </c>
       <c r="G33">
-        <v>3.583959981432896</v>
+        <v>6.888929066107544</v>
       </c>
       <c r="H33">
-        <v>0.2661935132166048</v>
+        <v>0.5116653757037736</v>
       </c>
       <c r="I33">
-        <v>1.972923928523388</v>
+        <v>3.792266952431184</v>
       </c>
       <c r="J33">
-        <v>1.804381491879634</v>
+        <v>3.468302149062052</v>
       </c>
       <c r="K33">
-        <v>2.389778096674901</v>
+        <v>4.593525563069718</v>
       </c>
       <c r="L33">
-        <v>4.53396634084499</v>
+        <v>8.714989194079291</v>
       </c>
       <c r="M33">
-        <v>2.853010517795852</v>
+        <v>5.483930396481848</v>
       </c>
       <c r="N33">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O33">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P33">
-        <v>30.1100892032322</v>
+        <v>57.87627924693137</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.402946575031237</v>
+        <v>2.696681740030101</v>
       </c>
       <c r="C34">
-        <v>10.70333204540281</v>
+        <v>20.57347057828922</v>
       </c>
       <c r="D34">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E34">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F34">
-        <v>1.814053776566255</v>
+        <v>3.486893786094419</v>
       </c>
       <c r="G34">
-        <v>3.276763411595791</v>
+        <v>6.298449431869755</v>
       </c>
       <c r="H34">
-        <v>0.3082240679350162</v>
+        <v>0.5924546455517378</v>
       </c>
       <c r="I34">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="J34">
-        <v>1.224401726632609</v>
+        <v>2.353490744006392</v>
       </c>
       <c r="K34">
-        <v>1.621635137029397</v>
+        <v>3.117035203511596</v>
       </c>
       <c r="L34">
-        <v>2.901738458140795</v>
+        <v>5.57759308421075</v>
       </c>
       <c r="M34">
-        <v>1.825926731389346</v>
+        <v>3.509715453748383</v>
       </c>
       <c r="N34">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O34">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P34">
-        <v>27.78030077953982</v>
+        <v>53.39806317504362</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,43 +2058,43 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.477098085339441</v>
+        <v>2.839212487388985</v>
       </c>
       <c r="C35">
-        <v>11.26904726978985</v>
+        <v>21.66086331498528</v>
       </c>
       <c r="D35">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E35">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F35">
-        <v>1.303851151906996</v>
+        <v>2.506204908755364</v>
       </c>
       <c r="G35">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="H35">
-        <v>0.3782749924657018</v>
+        <v>0.7271034286316781</v>
       </c>
       <c r="I35">
-        <v>2.803628740533236</v>
+        <v>5.38901093240221</v>
       </c>
       <c r="J35">
-        <v>0.6444219613855837</v>
+        <v>1.238679338950732</v>
       </c>
       <c r="K35">
-        <v>0.8534921773838929</v>
+        <v>1.640544843953471</v>
       </c>
       <c r="L35">
-        <v>3.989890379943592</v>
+        <v>7.669190490789779</v>
       </c>
       <c r="M35">
-        <v>2.510649255660349</v>
+        <v>4.825858748904028</v>
       </c>
       <c r="P35">
-        <v>27.80671890127122</v>
+        <v>53.44884291801237</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2102,43 +2102,43 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.37921809173261</v>
+        <v>2.651071900875257</v>
       </c>
       <c r="C36">
-        <v>10.52230317359895</v>
+        <v>20.2255049025465</v>
       </c>
       <c r="D36">
-        <v>0.001643750531475549</v>
+        <v>0.003159544434752402</v>
       </c>
       <c r="E36">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="F36">
-        <v>1.360540332424691</v>
+        <v>2.615170339570813</v>
       </c>
       <c r="G36">
-        <v>2.457572558696843</v>
+        <v>4.723837073902315</v>
       </c>
       <c r="H36">
-        <v>0.280203698122742</v>
+        <v>0.5385951323197616</v>
       </c>
       <c r="I36">
-        <v>2.07676203002462</v>
+        <v>3.991859949927563</v>
       </c>
       <c r="J36">
-        <v>0.9021907459398172</v>
+        <v>1.734151074531026</v>
       </c>
       <c r="K36">
-        <v>1.19488904833745</v>
+        <v>2.296762781534859</v>
       </c>
       <c r="L36">
-        <v>5.984835569915387</v>
+        <v>11.50378573618467</v>
       </c>
       <c r="M36">
-        <v>3.765973883490525</v>
+        <v>7.238788123356039</v>
       </c>
       <c r="P36">
-        <v>30.08248283569658</v>
+        <v>57.82321551053056</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2146,43 +2146,43 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.8542253987505201</v>
+        <v>1.641954209574353</v>
       </c>
       <c r="C37">
-        <v>6.517039384938707</v>
+        <v>12.52676432673847</v>
       </c>
       <c r="D37">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E37">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F37">
-        <v>1.2471619713893</v>
+        <v>2.397239477939914</v>
       </c>
       <c r="G37">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="H37">
-        <v>0.3362444377472905</v>
+        <v>0.6463141587837138</v>
       </c>
       <c r="I37">
-        <v>2.492114436029544</v>
+        <v>4.790231939913074</v>
       </c>
       <c r="J37">
-        <v>0.4296146409237225</v>
+        <v>0.8257862259671551</v>
       </c>
       <c r="K37">
-        <v>0.5689947849225954</v>
+        <v>1.093696562635647</v>
       </c>
       <c r="L37">
-        <v>6.16619422354919</v>
+        <v>11.85238530394784</v>
       </c>
       <c r="M37">
-        <v>3.880094304202359</v>
+        <v>7.458145339215315</v>
       </c>
       <c r="P37">
-        <v>25.0920445754338</v>
+        <v>48.23081621984581</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.732616921845064</v>
+        <v>1.408203783905782</v>
       </c>
       <c r="C38">
-        <v>5.589266416943963</v>
+        <v>10.74344023855695</v>
       </c>
       <c r="D38">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E38">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F38">
-        <v>1.020405249318518</v>
+        <v>1.96137775467811</v>
       </c>
       <c r="G38">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="H38">
-        <v>0.140101849061371</v>
+        <v>0.2692975661598808</v>
       </c>
       <c r="I38">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="J38">
-        <v>0.5799797652470252</v>
+        <v>1.114811405055659</v>
       </c>
       <c r="K38">
-        <v>0.7681429596455039</v>
+        <v>1.476490359558124</v>
       </c>
       <c r="L38">
-        <v>5.984835569915387</v>
+        <v>11.50378573618467</v>
       </c>
       <c r="M38">
-        <v>3.765973883490525</v>
+        <v>7.238788123356039</v>
       </c>
       <c r="P38">
-        <v>21.74727171564559</v>
+        <v>41.80164204025289</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,49 +2234,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.5086793607142855</v>
+        <v>0.9777609268819497</v>
       </c>
       <c r="C39">
-        <v>3.880806439295098</v>
+        <v>7.459514173734887</v>
       </c>
       <c r="D39">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E39">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F39">
-        <v>0.6235809856946501</v>
+        <v>1.198619738969957</v>
       </c>
       <c r="G39">
-        <v>1.126387422736053</v>
+        <v>2.165091992205228</v>
       </c>
       <c r="H39">
-        <v>0.1821324037797823</v>
+        <v>0.3500868360078451</v>
       </c>
       <c r="I39">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="J39">
-        <v>0.343691712738978</v>
+        <v>0.6606289807737241</v>
       </c>
       <c r="K39">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="L39">
-        <v>4.896683648112591</v>
+        <v>9.412188329605636</v>
       </c>
       <c r="M39">
-        <v>3.08125135921952</v>
+        <v>5.922644828200397</v>
       </c>
       <c r="N39">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O39">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P39">
-        <v>16.95994131858229</v>
+        <v>32.59964768422104</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2284,43 +2284,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.3173684641191168</v>
+        <v>0.6100315986960272</v>
       </c>
       <c r="C40">
-        <v>2.421261160376534</v>
+        <v>4.654040913059086</v>
       </c>
       <c r="D40">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E40">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F40">
-        <v>0.2267567220707819</v>
+        <v>0.4358617232618023</v>
       </c>
       <c r="G40">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="H40">
-        <v>0.09807129434295973</v>
+        <v>0.1885082963119165</v>
       </c>
       <c r="I40">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="J40">
-        <v>0.3222109806927919</v>
+        <v>0.6193396694753662</v>
       </c>
       <c r="K40">
-        <v>0.4267460886919465</v>
+        <v>0.8202724219767357</v>
       </c>
       <c r="L40">
-        <v>2.357662497239395</v>
+        <v>4.531794380921233</v>
       </c>
       <c r="M40">
-        <v>1.483565469253844</v>
+        <v>2.851643806170561</v>
       </c>
       <c r="P40">
-        <v>9.07449347988875</v>
+        <v>17.44258926373825</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2328,43 +2328,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1705484737088712</v>
+        <v>0.3278207189254351</v>
       </c>
       <c r="C41">
-        <v>1.301145016090193</v>
+        <v>2.501003294400911</v>
       </c>
       <c r="D41">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E41">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F41">
-        <v>0.2267567220707819</v>
+        <v>0.4358617232618023</v>
       </c>
       <c r="G41">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="H41">
-        <v>0.0700509245306855</v>
+        <v>0.1346487830799404</v>
       </c>
       <c r="I41">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="J41">
-        <v>0.343691712738978</v>
+        <v>0.6606289807737241</v>
       </c>
       <c r="K41">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="L41">
-        <v>2.720379804506995</v>
+        <v>5.228993516447574</v>
       </c>
       <c r="M41">
-        <v>1.711806310677511</v>
+        <v>3.290358237889109</v>
       </c>
       <c r="P41">
-        <v>8.370743095773946</v>
+        <v>16.08987145954154</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2372,43 +2372,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.09936302381299453</v>
+        <v>0.1909912014609056</v>
       </c>
       <c r="C42">
-        <v>0.7580584006786345</v>
+        <v>1.457106267172705</v>
       </c>
       <c r="D42">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E42">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F42">
-        <v>0.1700675415530864</v>
+        <v>0.3268962924463516</v>
       </c>
       <c r="G42">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H42">
-        <v>0.05604073962454841</v>
+        <v>0.1077190264639523</v>
       </c>
       <c r="I42">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="J42">
-        <v>0.3222109806927919</v>
+        <v>0.6193396694753662</v>
       </c>
       <c r="K42">
-        <v>0.4267460886919465</v>
+        <v>0.8202724219767357</v>
       </c>
       <c r="L42">
-        <v>1.813586536337995</v>
+        <v>3.485995677631716</v>
       </c>
       <c r="M42">
-        <v>1.141204207118341</v>
+        <v>2.19357215859274</v>
       </c>
       <c r="P42">
-        <v>5.762616419813067</v>
+        <v>11.07664593269458</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2416,37 +2416,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.07563454051436899</v>
+        <v>0.1453813623060625</v>
       </c>
       <c r="C43">
-        <v>0.5770295288747818</v>
+        <v>1.109140591429969</v>
       </c>
       <c r="D43">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E43">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F43">
-        <v>0.1133783610353909</v>
+        <v>0.2179308616309012</v>
       </c>
       <c r="G43">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="J43">
-        <v>0.2148073204618612</v>
+        <v>0.4128931129835776</v>
       </c>
       <c r="K43">
-        <v>0.2844973924612977</v>
+        <v>0.5468482813178237</v>
       </c>
       <c r="L43">
-        <v>3.264455765408394</v>
+        <v>6.27479221973709</v>
       </c>
       <c r="M43">
-        <v>2.054167572813014</v>
+        <v>3.948429885466931</v>
       </c>
       <c r="P43">
-        <v>6.978360638889372</v>
+        <v>13.41349559930232</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,43 +2454,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.05783817804039982</v>
+        <v>0.1111739829399302</v>
       </c>
       <c r="C44">
-        <v>0.4412578750218916</v>
+        <v>0.848166334622917</v>
       </c>
       <c r="D44">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E44">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F44">
-        <v>0.1133783610353909</v>
+        <v>0.2179308616309012</v>
       </c>
       <c r="G44">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="H44">
-        <v>0.0140101849061371</v>
+        <v>0.02692975661598809</v>
       </c>
       <c r="I44">
-        <v>0.103838101501231</v>
+        <v>0.199592997496378</v>
       </c>
       <c r="J44">
-        <v>0.343691712738978</v>
+        <v>0.6606289807737241</v>
       </c>
       <c r="K44">
-        <v>0.4551958279380763</v>
+        <v>0.8749572501085179</v>
       </c>
       <c r="L44">
-        <v>4.17124903357739</v>
+        <v>8.017790058552954</v>
       </c>
       <c r="M44">
-        <v>2.624769676372185</v>
+        <v>5.045215964763301</v>
       </c>
       <c r="P44">
-        <v>8.624822886404178</v>
+        <v>16.57825237446552</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2498,43 +2498,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1749975643273635</v>
+        <v>0.3363725637669682</v>
       </c>
       <c r="C45">
-        <v>1.335087929553416</v>
+        <v>2.566246858602673</v>
       </c>
       <c r="D45">
-        <v>0.001643750531475549</v>
+        <v>0.003159544434752402</v>
       </c>
       <c r="E45">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="F45">
-        <v>0.4535134441415637</v>
+        <v>0.8717234465236047</v>
       </c>
       <c r="G45">
-        <v>0.8191908528989478</v>
+        <v>1.574612357967439</v>
       </c>
       <c r="H45">
-        <v>0.0700509245306855</v>
+        <v>0.1346487830799404</v>
       </c>
       <c r="I45">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="J45">
-        <v>0.4081339088775364</v>
+        <v>0.7844969146687973</v>
       </c>
       <c r="K45">
-        <v>0.5405450456764656</v>
+        <v>1.039011734503865</v>
       </c>
       <c r="L45">
-        <v>6.89162883808438</v>
+        <v>13.24678357500052</v>
       </c>
       <c r="M45">
-        <v>4.336575987049695</v>
+        <v>8.335574202652413</v>
       </c>
       <c r="P45">
-        <v>15.70690870605914</v>
+        <v>30.19112392002987</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2542,43 +2542,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.3099533130882963</v>
+        <v>0.5957785239601386</v>
       </c>
       <c r="C46">
-        <v>2.364689637937831</v>
+        <v>4.545301639389481</v>
       </c>
       <c r="F46">
-        <v>1.13378361035391</v>
+        <v>2.179308616309012</v>
       </c>
       <c r="G46">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="H46">
-        <v>0.1681222188736453</v>
+        <v>0.3231570793918569</v>
       </c>
       <c r="I46">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="J46">
-        <v>0.7088641575241421</v>
+        <v>1.362547272845806</v>
       </c>
       <c r="K46">
-        <v>0.9388413951222825</v>
+        <v>1.804599328348818</v>
       </c>
       <c r="L46">
-        <v>15.05276825160537</v>
+        <v>28.93376412434325</v>
       </c>
       <c r="M46">
-        <v>9.471994919082229</v>
+        <v>18.20664891631974</v>
       </c>
       <c r="N46">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O46">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P46">
-        <v>33.65081526169291</v>
+        <v>64.68210598205644</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2586,49 +2586,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.9150296372032485</v>
+        <v>1.758829422408639</v>
       </c>
       <c r="C47">
-        <v>6.980925868936079</v>
+        <v>13.41842637082923</v>
       </c>
       <c r="D47">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E47">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F47">
-        <v>1.303851151906996</v>
+        <v>2.506204908755364</v>
       </c>
       <c r="G47">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="H47">
-        <v>0.4763462868086614</v>
+        <v>0.9156117249435948</v>
       </c>
       <c r="I47">
-        <v>3.530495451041853</v>
+        <v>6.786161914876858</v>
       </c>
       <c r="J47">
-        <v>1.525131975279215</v>
+        <v>2.9315411021834</v>
       </c>
       <c r="K47">
-        <v>2.019931486475214</v>
+        <v>3.882622797356548</v>
       </c>
       <c r="L47">
-        <v>15.41548555887296</v>
+        <v>29.6309632598696</v>
       </c>
       <c r="M47">
-        <v>9.700235760505899</v>
+        <v>18.64536334803828</v>
       </c>
       <c r="N47">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O47">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P47">
-        <v>44.61390574313735</v>
+        <v>85.75487271585085</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2636,49 +2636,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.09299326194294</v>
+        <v>2.10090321606996</v>
       </c>
       <c r="C48">
-        <v>8.338642407464976</v>
+        <v>16.02816893889974</v>
       </c>
       <c r="D48">
-        <v>0.004931251594426647</v>
+        <v>0.009478633304257208</v>
       </c>
       <c r="E48">
-        <v>0.4690498586443865</v>
+        <v>0.9015868540410066</v>
       </c>
       <c r="F48">
-        <v>0.8503377077654322</v>
+        <v>1.634481462231758</v>
       </c>
       <c r="G48">
-        <v>1.535982849185527</v>
+        <v>2.952398171188947</v>
       </c>
       <c r="H48">
-        <v>0.3082240679350162</v>
+        <v>0.5924546455517378</v>
       </c>
       <c r="I48">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="J48">
-        <v>1.396247583002098</v>
+        <v>2.683805234393254</v>
       </c>
       <c r="K48">
-        <v>1.849233050998435</v>
+        <v>3.554513828565854</v>
       </c>
       <c r="L48">
-        <v>11.42559517892938</v>
+        <v>21.96177276907982</v>
       </c>
       <c r="M48">
-        <v>7.18958650484555</v>
+        <v>13.81950459913426</v>
       </c>
       <c r="N48">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O48">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P48">
-        <v>37.09153430174036</v>
+        <v>71.29570365783626</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2686,49 +2686,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.389599303175759</v>
+        <v>2.671026205505502</v>
       </c>
       <c r="C49">
-        <v>10.60150330501314</v>
+        <v>20.37773988568394</v>
       </c>
       <c r="D49">
-        <v>0.001315000425180439</v>
+        <v>0.002527635547801923</v>
       </c>
       <c r="E49">
-        <v>0.1250799623051697</v>
+        <v>0.2404231610776017</v>
       </c>
       <c r="F49">
-        <v>1.587297054495473</v>
+        <v>3.051032062832615</v>
       </c>
       <c r="G49">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="H49">
-        <v>0.280203698122742</v>
+        <v>0.5385951323197616</v>
       </c>
       <c r="I49">
-        <v>2.07676203002462</v>
+        <v>3.991859949927563</v>
       </c>
       <c r="J49">
-        <v>1.267363190724981</v>
+        <v>2.436069366603107</v>
       </c>
       <c r="K49">
-        <v>1.678534615521656</v>
+        <v>3.22640485977516</v>
       </c>
       <c r="L49">
-        <v>10.33744325712658</v>
+        <v>19.87017536250078</v>
       </c>
       <c r="M49">
-        <v>6.504863980574545</v>
+        <v>12.50336130397861</v>
       </c>
       <c r="N49">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O49">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P49">
-        <v>38.78638785193719</v>
+        <v>74.55347605072956</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.6965091325141469</v>
+        <v>0.4060270291865412</v>
       </c>
       <c r="C2">
-        <v>5.313793590314296</v>
+        <v>3.097653317764612</v>
       </c>
       <c r="D2">
-        <v>0.003047336314639701</v>
+        <v>0.001776431712100043</v>
       </c>
       <c r="E2">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="F2">
-        <v>0.9633766126300588</v>
+        <v>0.5615962889130265</v>
       </c>
       <c r="G2">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="H2">
-        <v>0.1731558182411196</v>
+        <v>0.1009404459824201</v>
       </c>
       <c r="I2">
-        <v>1.283364320350543</v>
+        <v>0.7481317588400066</v>
       </c>
       <c r="J2">
-        <v>1.061945651337202</v>
+        <v>0.6190566897717638</v>
       </c>
       <c r="K2">
-        <v>1.406473336623038</v>
+        <v>0.8198976349926549</v>
       </c>
       <c r="L2">
-        <v>8.265393489861371</v>
+        <v>4.818275894864923</v>
       </c>
       <c r="M2">
-        <v>5.201021090046522</v>
+        <v>3.031913069546501</v>
       </c>
       <c r="N2">
-        <v>0.08300287893970713</v>
+        <v>0.04838617438965873</v>
       </c>
       <c r="O2">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="P2">
-        <v>26.82607147270011</v>
+        <v>15.6381439902872</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.5029070874567608</v>
+        <v>0.293167542455414</v>
       </c>
       <c r="C3">
-        <v>3.836768727217065</v>
+        <v>2.23662797121491</v>
       </c>
       <c r="D3">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E3">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F3">
-        <v>0.8757969205727804</v>
+        <v>0.5105420808300239</v>
       </c>
       <c r="G3">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="H3">
-        <v>0.05411119320034988</v>
+        <v>0.03154388936950629</v>
       </c>
       <c r="I3">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="J3">
-        <v>1.27765336176507</v>
+        <v>0.7448025798816535</v>
       </c>
       <c r="K3">
-        <v>1.692163233124593</v>
+        <v>0.9864393421005379</v>
       </c>
       <c r="L3">
-        <v>6.86447933903741</v>
+        <v>4.001618963531886</v>
       </c>
       <c r="M3">
-        <v>4.319492091733554</v>
+        <v>2.518029498436925</v>
       </c>
       <c r="N3">
-        <v>0.07262751907224374</v>
+        <v>0.04233790259095137</v>
       </c>
       <c r="O3">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="P3">
-        <v>22.00054290752945</v>
+        <v>12.82512268717996</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.5956986001765725</v>
+        <v>0.3472599591726997</v>
       </c>
       <c r="C4">
-        <v>4.544691886453016</v>
+        <v>2.649308758614472</v>
       </c>
       <c r="D4">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E4">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F4">
-        <v>1.094746150715975</v>
+        <v>0.6381776010375301</v>
       </c>
       <c r="G4">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="H4">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I4">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J4">
-        <v>1.211281758556496</v>
+        <v>0.7061115367709181</v>
       </c>
       <c r="K4">
-        <v>1.604258649585653</v>
+        <v>0.9351957399134969</v>
       </c>
       <c r="L4">
-        <v>6.724387923955017</v>
+        <v>3.91995327039858</v>
       </c>
       <c r="M4">
-        <v>4.231339191902256</v>
+        <v>2.466641141325966</v>
       </c>
       <c r="N4">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O4">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P4">
-        <v>23.00310730457503</v>
+        <v>13.40956332793831</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.7492055471451515</v>
+        <v>0.4367461794210493</v>
       </c>
       <c r="C5">
-        <v>5.715824026423601</v>
+        <v>3.332015246411277</v>
       </c>
       <c r="D5">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E5">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F5">
-        <v>1.007166458658697</v>
+        <v>0.5871233929545273</v>
       </c>
       <c r="G5">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="H5">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I5">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J5">
-        <v>1.161503056150065</v>
+        <v>0.6770932544378667</v>
       </c>
       <c r="K5">
-        <v>1.538330211931448</v>
+        <v>0.8967630382732162</v>
       </c>
       <c r="L5">
-        <v>6.304113678707827</v>
+        <v>3.67495619099867</v>
       </c>
       <c r="M5">
-        <v>3.966880492408366</v>
+        <v>2.312476069993094</v>
       </c>
       <c r="N5">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O5">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P5">
-        <v>23.33034679483554</v>
+        <v>13.60032619357854</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.7640980121495652</v>
+        <v>0.4454276784003669</v>
       </c>
       <c r="C6">
-        <v>5.829441323584926</v>
+        <v>3.398247965376639</v>
       </c>
       <c r="D6">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E6">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F6">
-        <v>1.050956304687336</v>
+        <v>0.6126504969960285</v>
       </c>
       <c r="G6">
-        <v>1.898364431568221</v>
+        <v>1.106643451580854</v>
       </c>
       <c r="H6">
-        <v>0.1082223864006998</v>
+        <v>0.06308777873901258</v>
       </c>
       <c r="I6">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="J6">
-        <v>1.526546873797227</v>
+        <v>0.8898939915469107</v>
       </c>
       <c r="K6">
-        <v>2.021805421395618</v>
+        <v>1.178602850301941</v>
       </c>
       <c r="L6">
-        <v>7.004570754119806</v>
+        <v>4.083284656665189</v>
       </c>
       <c r="M6">
-        <v>4.40764499156485</v>
+        <v>2.569417855547881</v>
       </c>
       <c r="N6">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O6">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P6">
-        <v>25.96945758165358</v>
+        <v>15.13878457473138</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.6827622417408411</v>
+        <v>0.3980133378210175</v>
       </c>
       <c r="C7">
-        <v>5.208916085242302</v>
+        <v>3.036515423335048</v>
       </c>
       <c r="D7">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E7">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F7">
-        <v>1.31369538085917</v>
+        <v>0.7658131212450359</v>
       </c>
       <c r="G7">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="H7">
-        <v>0.1190446250407697</v>
+        <v>0.06939655661291382</v>
       </c>
       <c r="I7">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="J7">
-        <v>1.675882981016521</v>
+        <v>0.9769488385460648</v>
       </c>
       <c r="K7">
-        <v>2.219590734358232</v>
+        <v>1.293900955222784</v>
       </c>
       <c r="L7">
-        <v>6.304113678707827</v>
+        <v>3.67495619099867</v>
       </c>
       <c r="M7">
-        <v>3.966880492408366</v>
+        <v>2.312476069993094</v>
       </c>
       <c r="N7">
-        <v>0.1660057578794143</v>
+        <v>0.09677234877931745</v>
       </c>
       <c r="O7">
-        <v>0.6899297187435258</v>
+        <v>0.4021915879807221</v>
       </c>
       <c r="P7">
-        <v>25.79735907027567</v>
+        <v>15.03846048127698</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.7526422698384773</v>
+        <v>0.4387496022624305</v>
       </c>
       <c r="C8">
-        <v>5.742043402691597</v>
+        <v>3.34729972001867</v>
       </c>
       <c r="D8">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E8">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F8">
-        <v>1.707803995116922</v>
+        <v>0.9955570576185465</v>
       </c>
       <c r="G8">
-        <v>3.084842201298359</v>
+        <v>1.798295608818888</v>
       </c>
       <c r="H8">
-        <v>0.1298668636808397</v>
+        <v>0.07570533448681512</v>
       </c>
       <c r="I8">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="J8">
-        <v>1.161503056150065</v>
+        <v>0.6770932544378667</v>
       </c>
       <c r="K8">
-        <v>1.538330211931448</v>
+        <v>0.8967630382732162</v>
       </c>
       <c r="L8">
-        <v>5.183382358048654</v>
+        <v>3.021630645932241</v>
       </c>
       <c r="M8">
-        <v>3.261657293757989</v>
+        <v>1.901369213105432</v>
       </c>
       <c r="N8">
-        <v>0.08300287893970713</v>
+        <v>0.04838617438965873</v>
       </c>
       <c r="O8">
-        <v>0.3449648593717629</v>
+        <v>0.201095793990361</v>
       </c>
       <c r="P8">
-        <v>24.17224010373834</v>
+        <v>14.09110430853584</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.8259590206294407</v>
+        <v>0.4814892895452241</v>
       </c>
       <c r="C9">
-        <v>6.301390096408891</v>
+        <v>3.673368490309681</v>
       </c>
       <c r="D9">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E9">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F9">
-        <v>1.576434457031005</v>
+        <v>0.9189757454940429</v>
       </c>
       <c r="G9">
-        <v>2.84754664735233</v>
+        <v>1.659965177371281</v>
       </c>
       <c r="H9">
-        <v>0.2272670114414695</v>
+        <v>0.1324843353519264</v>
       </c>
       <c r="I9">
-        <v>1.684415670460089</v>
+        <v>0.9819229334775083</v>
       </c>
       <c r="J9">
-        <v>1.360617865775789</v>
+        <v>0.7931663837700725</v>
       </c>
       <c r="K9">
-        <v>1.802043962548268</v>
+        <v>1.050493844834339</v>
       </c>
       <c r="L9">
-        <v>4.062651037389488</v>
+        <v>2.368305100865809</v>
       </c>
       <c r="M9">
-        <v>2.556434095107613</v>
+        <v>1.490262356217772</v>
       </c>
       <c r="N9">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O9">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P9">
-        <v>23.65869134902212</v>
+        <v>13.79173325152297</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.176504735348731</v>
+        <v>0.6858384193660814</v>
       </c>
       <c r="C10">
-        <v>8.975766475744706</v>
+        <v>5.232384798263581</v>
       </c>
       <c r="D10">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E10">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F10">
-        <v>1.31369538085917</v>
+        <v>0.7658131212450359</v>
       </c>
       <c r="G10">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="H10">
-        <v>0.1948002955212595</v>
+        <v>0.1135580017302226</v>
       </c>
       <c r="I10">
-        <v>1.443784860394361</v>
+        <v>0.8416482286950077</v>
       </c>
       <c r="J10">
-        <v>1.14491015534792</v>
+        <v>0.6674204936601827</v>
       </c>
       <c r="K10">
-        <v>1.516354066046713</v>
+        <v>0.883952137726456</v>
       </c>
       <c r="L10">
-        <v>3.222102546895111</v>
+        <v>1.878310942065987</v>
       </c>
       <c r="M10">
-        <v>2.027516696119831</v>
+        <v>1.181932213552025</v>
       </c>
       <c r="N10">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O10">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P10">
-        <v>23.82205209354342</v>
+        <v>13.88696370104237</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,43 +930,43 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.173068012655405</v>
+        <v>0.683834996524701</v>
       </c>
       <c r="C11">
-        <v>8.949547099476709</v>
+        <v>5.21710032465619</v>
       </c>
       <c r="D11">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E11">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F11">
-        <v>1.094746150715975</v>
+        <v>0.6381776010375301</v>
       </c>
       <c r="G11">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="H11">
-        <v>0.2922004432818894</v>
+        <v>0.1703370025953339</v>
       </c>
       <c r="I11">
-        <v>2.165677290591542</v>
+        <v>1.262472343042511</v>
       </c>
       <c r="J11">
-        <v>0.6637160320857507</v>
+        <v>0.3869104311073523</v>
       </c>
       <c r="K11">
-        <v>0.8790458353893992</v>
+        <v>0.5124360218704093</v>
       </c>
       <c r="L11">
-        <v>3.362193961977508</v>
+        <v>1.95997663519929</v>
       </c>
       <c r="M11">
-        <v>2.115669595951128</v>
+        <v>1.233320570662983</v>
       </c>
       <c r="P11">
-        <v>22.86859623625296</v>
+        <v>13.33115067415676</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,43 +974,43 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.9118770879626007</v>
+        <v>0.5315748605797482</v>
       </c>
       <c r="C12">
-        <v>6.956874503108848</v>
+        <v>4.05548033049446</v>
       </c>
       <c r="D12">
-        <v>0.003809170393299627</v>
+        <v>0.002220539640125053</v>
       </c>
       <c r="E12">
-        <v>0.3623199506893765</v>
+        <v>0.2112128704793884</v>
       </c>
       <c r="F12">
-        <v>0.7882172285155024</v>
+        <v>0.4594878727470215</v>
       </c>
       <c r="G12">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="H12">
-        <v>0.2489114887216095</v>
+        <v>0.1451018910997289</v>
       </c>
       <c r="I12">
-        <v>1.844836210503906</v>
+        <v>1.07543940333251</v>
       </c>
       <c r="J12">
-        <v>0.7798663377007572</v>
+        <v>0.4546197565511391</v>
       </c>
       <c r="K12">
-        <v>1.032878856582544</v>
+        <v>0.6021123256977309</v>
       </c>
       <c r="L12">
-        <v>3.222102546895111</v>
+        <v>1.878310942065987</v>
       </c>
       <c r="M12">
-        <v>2.027516696119831</v>
+        <v>1.181932213552025</v>
       </c>
       <c r="P12">
-        <v>19.60298340086955</v>
+        <v>11.4274755949255</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,49 +1018,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.7308763594474105</v>
+        <v>0.4260612576003509</v>
       </c>
       <c r="C13">
-        <v>5.575987352994278</v>
+        <v>3.250498053838524</v>
       </c>
       <c r="D13">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E13">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F13">
-        <v>0.9633766126300588</v>
+        <v>0.5615962889130265</v>
       </c>
       <c r="G13">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="H13">
-        <v>0.1731558182411196</v>
+        <v>0.1009404459824201</v>
       </c>
       <c r="I13">
-        <v>1.283364320350543</v>
+        <v>0.7481317588400066</v>
       </c>
       <c r="J13">
-        <v>0.4646012224600256</v>
+        <v>0.2708373017751466</v>
       </c>
       <c r="K13">
-        <v>0.6153320847725794</v>
+        <v>0.3587052153092865</v>
       </c>
       <c r="L13">
-        <v>5.743748018378244</v>
+        <v>3.348293418465455</v>
       </c>
       <c r="M13">
-        <v>3.614268893083176</v>
+        <v>2.106922641549263</v>
       </c>
       <c r="N13">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O13">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P13">
-        <v>21.22686873404453</v>
+        <v>12.37411262635774</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5464389082388952</v>
+        <v>0.3185442317795729</v>
       </c>
       <c r="C14">
-        <v>4.16888082661171</v>
+        <v>2.430231303575198</v>
       </c>
       <c r="D14">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E14">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F14">
-        <v>0.5254781523436681</v>
+        <v>0.3063252484980142</v>
       </c>
       <c r="G14">
-        <v>0.9491822157841104</v>
+        <v>0.553321725790427</v>
       </c>
       <c r="H14">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I14">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J14">
-        <v>0.3484509168450192</v>
+        <v>0.2031279763313601</v>
       </c>
       <c r="K14">
-        <v>0.4614990635794344</v>
+        <v>0.2690289114819648</v>
       </c>
       <c r="L14">
-        <v>5.883839433460638</v>
+        <v>3.429959111598756</v>
       </c>
       <c r="M14">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="P14">
-        <v>17.60075275231319</v>
+        <v>10.26028377499187</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.3597103085681613</v>
+        <v>0.2096915907312072</v>
       </c>
       <c r="C15">
-        <v>2.744294716050474</v>
+        <v>1.599774904240278</v>
       </c>
       <c r="D15">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E15">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F15">
-        <v>0.5254781523436681</v>
+        <v>0.3063252484980142</v>
       </c>
       <c r="G15">
-        <v>0.9491822157841104</v>
+        <v>0.553321725790427</v>
       </c>
       <c r="H15">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I15">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J15">
-        <v>0.4148225200535943</v>
+        <v>0.2418190194420952</v>
       </c>
       <c r="K15">
-        <v>0.5494036471183743</v>
+        <v>0.3202725136690058</v>
       </c>
       <c r="L15">
-        <v>3.642376792142301</v>
+        <v>2.123308021465898</v>
       </c>
       <c r="M15">
-        <v>2.291975395613722</v>
+        <v>1.336097284884899</v>
       </c>
       <c r="P15">
-        <v>12.56503101442618</v>
+        <v>7.324731258022082</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.1798551542840806</v>
+        <v>0.1048457953656036</v>
       </c>
       <c r="C16">
-        <v>1.372147358025237</v>
+        <v>0.7998874521201389</v>
       </c>
       <c r="D16">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E16">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F16">
-        <v>0.3065289222004732</v>
+        <v>0.1786897282905083</v>
       </c>
       <c r="G16">
-        <v>0.5536896258740643</v>
+        <v>0.3227710067110824</v>
       </c>
       <c r="H16">
-        <v>0.07575567048048981</v>
+        <v>0.04416144511730881</v>
       </c>
       <c r="I16">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="J16">
-        <v>0.1825219088235815</v>
+        <v>0.1064003685545219</v>
       </c>
       <c r="K16">
-        <v>0.2417376047320847</v>
+        <v>0.1409199060143626</v>
       </c>
       <c r="L16">
-        <v>2.801828301647922</v>
+        <v>1.633313862666076</v>
       </c>
       <c r="M16">
-        <v>1.76305799662594</v>
+        <v>1.027767142219153</v>
       </c>
       <c r="P16">
-        <v>8.258271905496841</v>
+        <v>4.814124397622966</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1305954623464025</v>
+        <v>0.0761300679724765</v>
       </c>
       <c r="C17">
-        <v>0.9963362981839307</v>
+        <v>0.5808099970808647</v>
       </c>
       <c r="D17">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E17">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F17">
-        <v>0.04378984602863903</v>
+        <v>0.02552710404150119</v>
       </c>
       <c r="G17">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="H17">
-        <v>0.05411119320034988</v>
+        <v>0.03154388936950629</v>
       </c>
       <c r="I17">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="J17">
-        <v>0.1991148096257252</v>
+        <v>0.1160731293322058</v>
       </c>
       <c r="K17">
-        <v>0.2637137506168197</v>
+        <v>0.1537308065611228</v>
       </c>
       <c r="L17">
-        <v>1.82118839607115</v>
+        <v>1.061654010732949</v>
       </c>
       <c r="M17">
-        <v>1.145987697806861</v>
+        <v>0.6680486424424494</v>
       </c>
       <c r="P17">
-        <v>5.33025618654886</v>
+        <v>3.107250118050187</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,43 +1244,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.07675347348428915</v>
+        <v>0.04474311012417478</v>
       </c>
       <c r="C18">
-        <v>0.5855660699852926</v>
+        <v>0.3413532438984033</v>
       </c>
       <c r="D18">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E18">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F18">
-        <v>0.1751593841145561</v>
+        <v>0.1021084161660048</v>
       </c>
       <c r="G18">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="H18">
-        <v>0.03246671592020992</v>
+        <v>0.01892633362170378</v>
       </c>
       <c r="I18">
-        <v>0.2406308100657269</v>
+        <v>0.1402747047825013</v>
       </c>
       <c r="J18">
-        <v>0.1659290080214377</v>
+        <v>0.09672760777683809</v>
       </c>
       <c r="K18">
-        <v>0.2197614588473498</v>
+        <v>0.1281090054676023</v>
       </c>
       <c r="L18">
-        <v>1.82118839607115</v>
+        <v>1.061654010732949</v>
       </c>
       <c r="M18">
-        <v>1.145987697806861</v>
+        <v>0.6680486424424494</v>
       </c>
       <c r="P18">
-        <v>5.121557599255408</v>
+        <v>2.985590166387648</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,37 +1288,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.0607154342487661</v>
+        <v>0.03539380353106362</v>
       </c>
       <c r="C19">
-        <v>0.4632089807346346</v>
+        <v>0.2700257003972442</v>
       </c>
       <c r="D19">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E19">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F19">
-        <v>0.04378984602863903</v>
+        <v>0.02552710404150119</v>
       </c>
       <c r="G19">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="J19">
-        <v>0.1659290080214377</v>
+        <v>0.09672760777683809</v>
       </c>
       <c r="K19">
-        <v>0.2197614588473498</v>
+        <v>0.1281090054676023</v>
       </c>
       <c r="L19">
-        <v>1.961279811153547</v>
+        <v>1.143319703866253</v>
       </c>
       <c r="M19">
-        <v>1.234140597638158</v>
+        <v>0.7194369995534069</v>
       </c>
       <c r="P19">
-        <v>4.374375303087612</v>
+        <v>2.550023432497584</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1326,43 +1326,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.0538419888621133</v>
+        <v>0.03138695784830171</v>
       </c>
       <c r="C20">
-        <v>0.4107702281986378</v>
+        <v>0.2394567531824619</v>
       </c>
       <c r="D20">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E20">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F20">
-        <v>0.1751593841145561</v>
+        <v>0.1021084161660048</v>
       </c>
       <c r="G20">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="H20">
-        <v>0.01082223864006997</v>
+        <v>0.006308777873901258</v>
       </c>
       <c r="I20">
-        <v>0.08021027002190896</v>
+        <v>0.04675823492750041</v>
       </c>
       <c r="J20">
-        <v>0.2820793136364441</v>
+        <v>0.1644369332206248</v>
       </c>
       <c r="K20">
-        <v>0.3735944800404946</v>
+        <v>0.217785309294924</v>
       </c>
       <c r="L20">
-        <v>2.661736886565526</v>
+        <v>1.551648169532773</v>
       </c>
       <c r="M20">
-        <v>1.674905096794643</v>
+        <v>0.9763787851081951</v>
       </c>
       <c r="P20">
-        <v>6.112739783018966</v>
+        <v>3.563395594442064</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,43 +1370,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.111120700417553</v>
+        <v>0.06477733853798438</v>
       </c>
       <c r="C21">
-        <v>0.8477598326652742</v>
+        <v>0.4941979799723148</v>
       </c>
       <c r="D21">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E21">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F21">
-        <v>0.2627390761718341</v>
+        <v>0.1531626242490071</v>
       </c>
       <c r="G21">
-        <v>0.4745911078920552</v>
+        <v>0.2766608628952135</v>
       </c>
       <c r="H21">
-        <v>0.03246671592020992</v>
+        <v>0.01892633362170378</v>
       </c>
       <c r="I21">
-        <v>0.2406308100657269</v>
+        <v>0.1402747047825013</v>
       </c>
       <c r="J21">
-        <v>0.2654864128343004</v>
+        <v>0.1547641724429409</v>
       </c>
       <c r="K21">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="L21">
-        <v>6.023930848543034</v>
+        <v>3.511624804732062</v>
       </c>
       <c r="M21">
-        <v>3.79057469274577</v>
+        <v>2.209699355771179</v>
       </c>
       <c r="P21">
-        <v>12.47414435562805</v>
+        <v>7.271749267776974</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,43 +1414,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.2921214289327425</v>
+        <v>0.1702909415173816</v>
       </c>
       <c r="C22">
-        <v>2.228646982779845</v>
+        <v>1.29918025662825</v>
       </c>
       <c r="D22">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E22">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F22">
-        <v>0.8757969205727804</v>
+        <v>0.5105420808300239</v>
       </c>
       <c r="G22">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="H22">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I22">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J22">
-        <v>0.4314154208557381</v>
+        <v>0.2514917802197791</v>
       </c>
       <c r="K22">
-        <v>0.5713797930031094</v>
+        <v>0.3330834142157661</v>
       </c>
       <c r="L22">
-        <v>11.34740462167409</v>
+        <v>6.614921143797604</v>
       </c>
       <c r="M22">
-        <v>7.140384886335061</v>
+        <v>4.162456925987568</v>
       </c>
       <c r="P22">
-        <v>25.36163881596789</v>
+        <v>14.78445921675027</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,49 +1458,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.6713064994297533</v>
+        <v>0.391335261683081</v>
       </c>
       <c r="C23">
-        <v>5.121518164348978</v>
+        <v>2.985567177977077</v>
       </c>
       <c r="D23">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E23">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F23">
-        <v>0.744427382486863</v>
+        <v>0.4339607687055203</v>
       </c>
       <c r="G23">
-        <v>1.344674805694156</v>
+        <v>0.7838724448697716</v>
       </c>
       <c r="H23">
-        <v>0.3679561137623791</v>
+        <v>0.2144984477126428</v>
       </c>
       <c r="I23">
-        <v>2.727149180744905</v>
+        <v>1.589779987535014</v>
       </c>
       <c r="J23">
-        <v>1.161503056150065</v>
+        <v>0.6770932544378667</v>
       </c>
       <c r="K23">
-        <v>1.538330211931448</v>
+        <v>0.8967630382732162</v>
       </c>
       <c r="L23">
-        <v>10.36676471609731</v>
+        <v>6.043261291864482</v>
       </c>
       <c r="M23">
-        <v>6.523314587515978</v>
+        <v>3.802738426210865</v>
       </c>
       <c r="N23">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O23">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P23">
-        <v>30.92738023575064</v>
+        <v>18.02898444750735</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1508,49 +1508,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.8683452671804658</v>
+        <v>0.5061981712555894</v>
       </c>
       <c r="C24">
-        <v>6.6247624037142</v>
+        <v>3.861876998134172</v>
       </c>
       <c r="D24">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E24">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F24">
-        <v>0.744427382486863</v>
+        <v>0.4339607687055203</v>
       </c>
       <c r="G24">
-        <v>1.344674805694156</v>
+        <v>0.7838724448697716</v>
       </c>
       <c r="H24">
-        <v>0.2272670114414695</v>
+        <v>0.1324843353519264</v>
       </c>
       <c r="I24">
-        <v>1.684415670460089</v>
+        <v>0.9819229334775083</v>
       </c>
       <c r="J24">
-        <v>1.045352750535057</v>
+        <v>0.6093839289940803</v>
       </c>
       <c r="K24">
-        <v>1.384497190738303</v>
+        <v>0.8070867344458946</v>
       </c>
       <c r="L24">
-        <v>8.405484904943771</v>
+        <v>4.899941587998224</v>
       </c>
       <c r="M24">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="N24">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O24">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P24">
-        <v>28.00324550273318</v>
+        <v>16.32437257213593</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1558,49 +1558,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.020706639917935</v>
+        <v>0.5950165838901453</v>
       </c>
       <c r="C25">
-        <v>7.787154751595455</v>
+        <v>4.539488661395179</v>
       </c>
       <c r="D25">
-        <v>0.001269723464433209</v>
+        <v>0.0007401798800416845</v>
       </c>
       <c r="E25">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="F25">
-        <v>1.269905534830532</v>
+        <v>0.7402860172035344</v>
       </c>
       <c r="G25">
-        <v>2.293857021478267</v>
+        <v>1.337194170660199</v>
       </c>
       <c r="H25">
-        <v>0.2056225341613295</v>
+        <v>0.1198667796041239</v>
       </c>
       <c r="I25">
-        <v>1.52399513041627</v>
+        <v>0.8884064636225077</v>
       </c>
       <c r="J25">
-        <v>0.87942374251362</v>
+        <v>0.5126563212172419</v>
       </c>
       <c r="K25">
-        <v>1.164735731890954</v>
+        <v>0.6789777289782926</v>
       </c>
       <c r="L25">
-        <v>6.724387923955017</v>
+        <v>3.91995327039858</v>
       </c>
       <c r="M25">
-        <v>4.231339191902256</v>
+        <v>2.466641141325966</v>
       </c>
       <c r="N25">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O25">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P25">
-        <v>27.54414704675613</v>
+        <v>16.05674308462062</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1608,49 +1608,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.8316868917849842</v>
+        <v>0.4848283276141925</v>
       </c>
       <c r="C26">
-        <v>6.345089056855556</v>
+        <v>3.698842612988667</v>
       </c>
       <c r="D26">
-        <v>0.004063115086186268</v>
+        <v>0.00236857561613339</v>
       </c>
       <c r="E26">
-        <v>0.3864746140686682</v>
+        <v>0.2252937285113476</v>
       </c>
       <c r="F26">
-        <v>1.138535996744615</v>
+        <v>0.663704705079031</v>
       </c>
       <c r="G26">
-        <v>2.056561467532239</v>
+        <v>1.198863739212592</v>
       </c>
       <c r="H26">
-        <v>0.2056225341613295</v>
+        <v>0.1198667796041239</v>
       </c>
       <c r="I26">
-        <v>1.52399513041627</v>
+        <v>0.8884064636225077</v>
       </c>
       <c r="J26">
-        <v>1.327432064171501</v>
+        <v>0.7738208622147047</v>
       </c>
       <c r="K26">
-        <v>1.758091670778798</v>
+        <v>1.024872043740819</v>
       </c>
       <c r="L26">
-        <v>10.08658188593252</v>
+        <v>5.879929905597874</v>
       </c>
       <c r="M26">
-        <v>6.347008787853384</v>
+        <v>3.699961711988951</v>
       </c>
       <c r="N26">
-        <v>0.07262751907224374</v>
+        <v>0.04233790259095137</v>
       </c>
       <c r="O26">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="P26">
-        <v>32.38561498640858</v>
+        <v>18.87905617812346</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1658,49 +1658,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.6014264713321166</v>
+        <v>0.3505989972416681</v>
       </c>
       <c r="C27">
-        <v>4.588390846899682</v>
+        <v>2.674782881293456</v>
       </c>
       <c r="D27">
-        <v>0.003047336314639701</v>
+        <v>0.001776431712100043</v>
       </c>
       <c r="E27">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="F27">
-        <v>1.050956304687336</v>
+        <v>0.6126504969960285</v>
       </c>
       <c r="G27">
-        <v>1.898364431568221</v>
+        <v>1.106643451580854</v>
       </c>
       <c r="H27">
-        <v>0.07575567048048981</v>
+        <v>0.04416144511730881</v>
       </c>
       <c r="I27">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="J27">
-        <v>1.609511377807946</v>
+        <v>0.9382577954353296</v>
       </c>
       <c r="K27">
-        <v>2.131686150819293</v>
+        <v>1.242657353035743</v>
       </c>
       <c r="L27">
-        <v>8.405484904943771</v>
+        <v>4.899941587998224</v>
       </c>
       <c r="M27">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="N27">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O27">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P27">
-        <v>26.82610113916978</v>
+        <v>15.6381612842292</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1708,49 +1708,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.6495405890386859</v>
+        <v>0.3786469170210015</v>
       </c>
       <c r="C28">
-        <v>4.955462114651655</v>
+        <v>2.888765511796933</v>
       </c>
       <c r="D28">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E28">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F28">
-        <v>1.182325842773253</v>
+        <v>0.6892318091205323</v>
       </c>
       <c r="G28">
-        <v>2.135659985514248</v>
+        <v>1.244973883028461</v>
       </c>
       <c r="H28">
-        <v>0.1082223864006998</v>
+        <v>0.06308777873901258</v>
       </c>
       <c r="I28">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="J28">
-        <v>1.327432064171501</v>
+        <v>0.7738208622147047</v>
       </c>
       <c r="K28">
-        <v>1.758091670778798</v>
+        <v>1.024872043740819</v>
       </c>
       <c r="L28">
-        <v>7.284753584284601</v>
+        <v>4.246616042931795</v>
       </c>
       <c r="M28">
-        <v>4.583950791227444</v>
+        <v>2.672194569769798</v>
       </c>
       <c r="N28">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O28">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P28">
-        <v>25.01189795285416</v>
+        <v>14.58057927174134</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1758,49 +1758,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.7171294686741044</v>
+        <v>0.4180475662348269</v>
       </c>
       <c r="C29">
-        <v>5.471109847922285</v>
+        <v>3.189360159408961</v>
       </c>
       <c r="D29">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E29">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F29">
-        <v>0.8757969205727804</v>
+        <v>0.5105420808300239</v>
       </c>
       <c r="G29">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="H29">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I29">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J29">
-        <v>1.360617865775789</v>
+        <v>0.7931663837700725</v>
       </c>
       <c r="K29">
-        <v>1.802043962548268</v>
+        <v>1.050493844834339</v>
       </c>
       <c r="L29">
-        <v>5.043290942966258</v>
+        <v>2.939964952798937</v>
       </c>
       <c r="M29">
-        <v>3.173504393926692</v>
+        <v>1.849980855994475</v>
       </c>
       <c r="N29">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O29">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P29">
-        <v>21.32723489793387</v>
+        <v>12.43262065367928</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1808,49 +1808,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.7881550710028502</v>
+        <v>0.4594516382900334</v>
       </c>
       <c r="C30">
-        <v>6.012976957460912</v>
+        <v>3.505239280628377</v>
       </c>
       <c r="D30">
-        <v>0.003047336314639701</v>
+        <v>0.001776431712100043</v>
       </c>
       <c r="E30">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="F30">
-        <v>1.094746150715975</v>
+        <v>0.6381776010375301</v>
       </c>
       <c r="G30">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="H30">
-        <v>0.09740014776062976</v>
+        <v>0.05677900086511132</v>
       </c>
       <c r="I30">
-        <v>0.7218924301971807</v>
+        <v>0.4208241143475038</v>
       </c>
       <c r="J30">
-        <v>1.078538552139345</v>
+        <v>0.6287294505494476</v>
       </c>
       <c r="K30">
-        <v>1.428449482507773</v>
+        <v>0.832708535539415</v>
       </c>
       <c r="L30">
-        <v>5.883839433460638</v>
+        <v>3.429959111598756</v>
       </c>
       <c r="M30">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="N30">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O30">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P30">
-        <v>23.13228223186508</v>
+        <v>13.48486530105623</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1858,49 +1858,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.737749804834063</v>
+        <v>0.4300681032831129</v>
       </c>
       <c r="C31">
-        <v>5.628426105530274</v>
+        <v>3.281067001053306</v>
       </c>
       <c r="D31">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E31">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F31">
-        <v>1.094746150715975</v>
+        <v>0.6381776010375301</v>
       </c>
       <c r="G31">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="H31">
-        <v>0.08657790912055978</v>
+        <v>0.05047022299121007</v>
       </c>
       <c r="I31">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="J31">
-        <v>1.626104278610089</v>
+        <v>0.9479305562130136</v>
       </c>
       <c r="K31">
-        <v>2.153662296704028</v>
+        <v>1.255468253582503</v>
       </c>
       <c r="L31">
-        <v>5.603656603295844</v>
+        <v>3.266627725332153</v>
       </c>
       <c r="M31">
-        <v>3.526115993251881</v>
+        <v>2.055534284438305</v>
       </c>
       <c r="N31">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O31">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P31">
-        <v>23.56334156088249</v>
+        <v>13.73614949905708</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1908,49 +1908,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.8351236144783105</v>
+        <v>0.4868317504555734</v>
       </c>
       <c r="C32">
-        <v>6.371308433123556</v>
+        <v>3.714127086596059</v>
       </c>
       <c r="D32">
-        <v>0.003301281007526343</v>
+        <v>0.00192446768810838</v>
       </c>
       <c r="E32">
-        <v>0.3140106239307929</v>
+        <v>0.1830511544154699</v>
       </c>
       <c r="F32">
-        <v>0.8320070745441415</v>
+        <v>0.4850149767885227</v>
       </c>
       <c r="G32">
-        <v>1.502871841658175</v>
+        <v>0.8760927325015095</v>
       </c>
       <c r="H32">
-        <v>0.08657790912055978</v>
+        <v>0.05047022299121007</v>
       </c>
       <c r="I32">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="J32">
-        <v>1.14491015534792</v>
+        <v>0.6674204936601827</v>
       </c>
       <c r="K32">
-        <v>1.516354066046713</v>
+        <v>0.883952137726456</v>
       </c>
       <c r="L32">
-        <v>5.883839433460638</v>
+        <v>3.429959111598756</v>
       </c>
       <c r="M32">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="N32">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O32">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P32">
-        <v>22.99489628767488</v>
+        <v>13.40477675064458</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1958,49 +1958,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.906149216807056</v>
+        <v>0.5282358225107797</v>
       </c>
       <c r="C33">
-        <v>6.913175542662182</v>
+        <v>4.030006207815475</v>
       </c>
       <c r="D33">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E33">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F33">
-        <v>1.532644611002366</v>
+        <v>0.8934486414525419</v>
       </c>
       <c r="G33">
-        <v>2.768448129370321</v>
+        <v>1.613855033555412</v>
       </c>
       <c r="H33">
-        <v>0.2056225341613295</v>
+        <v>0.1198667796041239</v>
       </c>
       <c r="I33">
-        <v>1.52399513041627</v>
+        <v>0.8884064636225077</v>
       </c>
       <c r="J33">
-        <v>1.393803667380077</v>
+        <v>0.8125119053254403</v>
       </c>
       <c r="K33">
-        <v>1.845996254317738</v>
+        <v>1.076115645927859</v>
       </c>
       <c r="L33">
-        <v>3.502285377059903</v>
+        <v>2.041642328332594</v>
       </c>
       <c r="M33">
-        <v>2.203822495782425</v>
+        <v>1.284708927773941</v>
       </c>
       <c r="N33">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O33">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P33">
-        <v>23.25869165998176</v>
+        <v>13.55855513822193</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.083713222628919</v>
+        <v>0.6317460026487962</v>
       </c>
       <c r="C34">
-        <v>8.267843316508756</v>
+        <v>4.819704010864018</v>
       </c>
       <c r="D34">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E34">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F34">
-        <v>1.401275072916449</v>
+        <v>0.8168673293280381</v>
       </c>
       <c r="G34">
-        <v>2.531152575424294</v>
+        <v>1.475524602107805</v>
       </c>
       <c r="H34">
-        <v>0.2380892500815394</v>
+        <v>0.1387931132258276</v>
       </c>
       <c r="I34">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="J34">
-        <v>0.9457953457221949</v>
+        <v>0.5513473643279773</v>
       </c>
       <c r="K34">
-        <v>1.252640315429894</v>
+        <v>0.7302213311653333</v>
       </c>
       <c r="L34">
-        <v>2.241462641318338</v>
+        <v>1.306651090132861</v>
       </c>
       <c r="M34">
-        <v>1.410446397300752</v>
+        <v>0.8222137137753223</v>
       </c>
       <c r="N34">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O34">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P34">
-        <v>21.45903473389603</v>
+        <v>12.50945280611613</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,43 +2058,43 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.140991934184359</v>
+        <v>0.6651363833384787</v>
       </c>
       <c r="C35">
-        <v>8.704832920975393</v>
+        <v>5.074445237653867</v>
       </c>
       <c r="D35">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E35">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F35">
-        <v>1.007166458658697</v>
+        <v>0.5871233929545273</v>
       </c>
       <c r="G35">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="H35">
-        <v>0.2922004432818894</v>
+        <v>0.1703370025953339</v>
       </c>
       <c r="I35">
-        <v>2.165677290591542</v>
+        <v>1.262472343042511</v>
       </c>
       <c r="J35">
-        <v>0.4977870240643132</v>
+        <v>0.2901828233305144</v>
       </c>
       <c r="K35">
-        <v>0.6592843765420494</v>
+        <v>0.3843270164028069</v>
       </c>
       <c r="L35">
-        <v>3.082011131812715</v>
+        <v>1.796645248932683</v>
       </c>
       <c r="M35">
-        <v>1.939363796288534</v>
+        <v>1.130543856441068</v>
       </c>
       <c r="P35">
-        <v>21.47944154649095</v>
+        <v>12.52134887051255</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2102,43 +2102,43 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.065384034931178</v>
+        <v>0.6210610808280976</v>
       </c>
       <c r="C36">
-        <v>8.128006643079434</v>
+        <v>4.738186818291267</v>
       </c>
       <c r="D36">
-        <v>0.001269723464433209</v>
+        <v>0.0007401798800416845</v>
       </c>
       <c r="E36">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="F36">
-        <v>1.050956304687336</v>
+        <v>0.6126504969960285</v>
       </c>
       <c r="G36">
-        <v>1.898364431568221</v>
+        <v>1.106643451580854</v>
       </c>
       <c r="H36">
-        <v>0.2164447728013995</v>
+        <v>0.1261755574780252</v>
       </c>
       <c r="I36">
-        <v>1.604205400438179</v>
+        <v>0.9351646985500084</v>
       </c>
       <c r="J36">
-        <v>0.6969018336900383</v>
+        <v>0.4062559526627201</v>
       </c>
       <c r="K36">
-        <v>0.9229981271588689</v>
+        <v>0.5380578229639297</v>
       </c>
       <c r="L36">
-        <v>4.623016697719071</v>
+        <v>2.694967873399024</v>
       </c>
       <c r="M36">
-        <v>2.909045694432801</v>
+        <v>1.695815784661602</v>
       </c>
       <c r="P36">
-        <v>23.23736698086742</v>
+        <v>13.5461240074514</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2146,43 +2146,43 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.6598507571186656</v>
+        <v>0.3846571855451446</v>
       </c>
       <c r="C37">
-        <v>5.034120243455649</v>
+        <v>2.934618932619109</v>
       </c>
       <c r="D37">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E37">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F37">
-        <v>0.9633766126300588</v>
+        <v>0.5615962889130265</v>
       </c>
       <c r="G37">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="H37">
-        <v>0.2597337273616793</v>
+        <v>0.1514106689736302</v>
       </c>
       <c r="I37">
-        <v>1.925046480525815</v>
+        <v>1.12219763826001</v>
       </c>
       <c r="J37">
-        <v>0.3318580160428753</v>
+        <v>0.1934552155536762</v>
       </c>
       <c r="K37">
-        <v>0.4395229176946996</v>
+        <v>0.2562180109352046</v>
       </c>
       <c r="L37">
-        <v>4.763108112801466</v>
+        <v>2.776633566532331</v>
       </c>
       <c r="M37">
-        <v>2.997198594264098</v>
+        <v>1.74720414177256</v>
       </c>
       <c r="P37">
-        <v>19.38247754629317</v>
+        <v>11.29893264714145</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.565913670167744</v>
+        <v>0.3298969612140649</v>
       </c>
       <c r="C38">
-        <v>4.317457292130365</v>
+        <v>2.516843320683747</v>
       </c>
       <c r="D38">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E38">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F38">
-        <v>0.7882172285155024</v>
+        <v>0.4594878727470215</v>
       </c>
       <c r="G38">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="H38">
-        <v>0.1082223864006998</v>
+        <v>0.06308777873901258</v>
       </c>
       <c r="I38">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="J38">
-        <v>0.4480083216578818</v>
+        <v>0.2611645409974629</v>
       </c>
       <c r="K38">
-        <v>0.5933559388878443</v>
+        <v>0.3458943147625262</v>
       </c>
       <c r="L38">
-        <v>4.623016697719071</v>
+        <v>2.694967873399024</v>
       </c>
       <c r="M38">
-        <v>2.909045694432801</v>
+        <v>1.695815784661602</v>
       </c>
       <c r="P38">
-        <v>16.79879072645677</v>
+        <v>9.792783431236817</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,49 +2234,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.3929319612703159</v>
+        <v>0.2290580115312233</v>
       </c>
       <c r="C39">
-        <v>2.997748686641122</v>
+        <v>1.747524815778391</v>
       </c>
       <c r="D39">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E39">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F39">
-        <v>0.4816883063150294</v>
+        <v>0.2807981444565132</v>
       </c>
       <c r="G39">
-        <v>0.870083697802101</v>
+        <v>0.5072115819745582</v>
       </c>
       <c r="H39">
-        <v>0.1406891023209097</v>
+        <v>0.08201411236071635</v>
       </c>
       <c r="I39">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="J39">
-        <v>0.2654864128343004</v>
+        <v>0.1547641724429409</v>
       </c>
       <c r="K39">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="L39">
-        <v>3.782468207224696</v>
+        <v>2.204973714599202</v>
       </c>
       <c r="M39">
-        <v>2.380128295445019</v>
+        <v>1.387485641995856</v>
       </c>
       <c r="N39">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O39">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P39">
-        <v>13.1007929945935</v>
+        <v>7.637051420104119</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2284,43 +2284,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2451528854572818</v>
+        <v>0.1429108293518418</v>
       </c>
       <c r="C40">
-        <v>1.870315507117203</v>
+        <v>1.090292450660571</v>
       </c>
       <c r="D40">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E40">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F40">
-        <v>0.1751593841145561</v>
+        <v>0.1021084161660048</v>
       </c>
       <c r="G40">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="H40">
-        <v>0.07575567048048981</v>
+        <v>0.04416144511730881</v>
       </c>
       <c r="I40">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="J40">
-        <v>0.2488935120321566</v>
+        <v>0.1450914116652572</v>
       </c>
       <c r="K40">
-        <v>0.3296421882710247</v>
+        <v>0.1921635082014035</v>
       </c>
       <c r="L40">
-        <v>1.82118839607115</v>
+        <v>1.061654010732949</v>
       </c>
       <c r="M40">
-        <v>1.145987697806861</v>
+        <v>0.6680486424424494</v>
       </c>
       <c r="P40">
-        <v>7.009638676081729</v>
+        <v>4.086238980165472</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2328,43 +2328,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1317410365775112</v>
+        <v>0.07679787558627013</v>
       </c>
       <c r="C41">
-        <v>1.005076090273263</v>
+        <v>0.585904821616662</v>
       </c>
       <c r="D41">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E41">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F41">
-        <v>0.1751593841145561</v>
+        <v>0.1021084161660048</v>
       </c>
       <c r="G41">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="H41">
-        <v>0.05411119320034988</v>
+        <v>0.03154388936950629</v>
       </c>
       <c r="I41">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="J41">
-        <v>0.2654864128343004</v>
+        <v>0.1547641724429409</v>
       </c>
       <c r="K41">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="L41">
-        <v>2.101371226235943</v>
+        <v>1.224985396999556</v>
       </c>
       <c r="M41">
-        <v>1.322293497469455</v>
+        <v>0.7708253566643645</v>
       </c>
       <c r="P41">
-        <v>6.466023109909218</v>
+        <v>3.769340603605992</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2372,43 +2372,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.07675347348428915</v>
+        <v>0.04474311012417478</v>
       </c>
       <c r="C42">
-        <v>0.5855660699852926</v>
+        <v>0.3413532438984033</v>
       </c>
       <c r="D42">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E42">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F42">
-        <v>0.131369538085917</v>
+        <v>0.07658131212450356</v>
       </c>
       <c r="G42">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H42">
-        <v>0.04328895456027989</v>
+        <v>0.02523511149560503</v>
       </c>
       <c r="I42">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="J42">
-        <v>0.2488935120321566</v>
+        <v>0.1450914116652572</v>
       </c>
       <c r="K42">
-        <v>0.3296421882710247</v>
+        <v>0.1921635082014035</v>
       </c>
       <c r="L42">
-        <v>1.400914150823961</v>
+        <v>0.8166569313330382</v>
       </c>
       <c r="M42">
-        <v>0.8815289983129702</v>
+        <v>0.5138835711095763</v>
       </c>
       <c r="P42">
-        <v>4.451362384166982</v>
+        <v>2.594902723173311</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2416,37 +2416,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.05842428578654849</v>
+        <v>0.03405818830347633</v>
       </c>
       <c r="C43">
-        <v>0.4457293965559688</v>
+        <v>0.25983605132565</v>
       </c>
       <c r="D43">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E43">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F43">
-        <v>0.08757969205727806</v>
+        <v>0.05105420808300238</v>
       </c>
       <c r="G43">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="J43">
-        <v>0.1659290080214377</v>
+        <v>0.09672760777683809</v>
       </c>
       <c r="K43">
-        <v>0.2197614588473498</v>
+        <v>0.1281090054676023</v>
       </c>
       <c r="L43">
-        <v>2.521645471483129</v>
+        <v>1.469982476399468</v>
       </c>
       <c r="M43">
-        <v>1.586752196963346</v>
+        <v>0.9249904279972376</v>
       </c>
       <c r="P43">
-        <v>5.390470194112146</v>
+        <v>3.142351617032818</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,43 +2454,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.04467739501324295</v>
+        <v>0.02604449693795248</v>
       </c>
       <c r="C44">
-        <v>0.3408518914839763</v>
+        <v>0.1986981568960853</v>
       </c>
       <c r="D44">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E44">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F44">
-        <v>0.08757969205727806</v>
+        <v>0.05105420808300238</v>
       </c>
       <c r="G44">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="H44">
-        <v>0.01082223864006997</v>
+        <v>0.006308777873901258</v>
       </c>
       <c r="I44">
-        <v>0.08021027002190896</v>
+        <v>0.04675823492750041</v>
       </c>
       <c r="J44">
-        <v>0.2654864128343004</v>
+        <v>0.1547641724429409</v>
       </c>
       <c r="K44">
-        <v>0.3516183341557596</v>
+        <v>0.2049744087481637</v>
       </c>
       <c r="L44">
-        <v>3.222102546895111</v>
+        <v>1.878310942065987</v>
       </c>
       <c r="M44">
-        <v>2.027516696119831</v>
+        <v>1.181932213552025</v>
       </c>
       <c r="P44">
-        <v>6.662288337402032</v>
+        <v>3.883752581183199</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2498,43 +2498,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1351777592708377</v>
+        <v>0.07880129842765107</v>
       </c>
       <c r="C45">
-        <v>1.031295466541262</v>
+        <v>0.6011892952240533</v>
       </c>
       <c r="D45">
-        <v>0.001269723464433209</v>
+        <v>0.0007401798800416845</v>
       </c>
       <c r="E45">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="F45">
-        <v>0.3503187682291122</v>
+        <v>0.2042168323320095</v>
       </c>
       <c r="G45">
-        <v>0.6327881438560735</v>
+        <v>0.3688811505269514</v>
       </c>
       <c r="H45">
-        <v>0.05411119320034988</v>
+        <v>0.03154388936950629</v>
       </c>
       <c r="I45">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="J45">
-        <v>0.3152651152407317</v>
+        <v>0.1837824547759923</v>
       </c>
       <c r="K45">
-        <v>0.4175467718099646</v>
+        <v>0.2434071103884444</v>
       </c>
       <c r="L45">
-        <v>5.323473773131052</v>
+        <v>3.103296339065545</v>
       </c>
       <c r="M45">
-        <v>3.349810193589287</v>
+        <v>1.95275757021639</v>
       </c>
       <c r="P45">
-        <v>12.13288157533911</v>
+        <v>7.072811585003885</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2542,43 +2542,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.2394250143017379</v>
+        <v>0.1395717912828736</v>
       </c>
       <c r="C46">
-        <v>1.826616546670539</v>
+        <v>1.064818327981586</v>
       </c>
       <c r="F46">
-        <v>0.8757969205727804</v>
+        <v>0.5105420808300239</v>
       </c>
       <c r="G46">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="H46">
-        <v>0.1298668636808397</v>
+        <v>0.07570533448681512</v>
       </c>
       <c r="I46">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="J46">
-        <v>0.5475657264707444</v>
+        <v>0.3192011056635659</v>
       </c>
       <c r="K46">
-        <v>0.7252128141962541</v>
+        <v>0.4227597180430877</v>
       </c>
       <c r="L46">
-        <v>11.62758745183888</v>
+        <v>6.778252530064214</v>
       </c>
       <c r="M46">
-        <v>7.316690685997653</v>
+        <v>4.265233640209485</v>
       </c>
       <c r="N46">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O46">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P46">
-        <v>25.99374352549932</v>
+        <v>15.15294196215154</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2586,49 +2586,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.7068193005941253</v>
+        <v>0.412037297710684</v>
       </c>
       <c r="C47">
-        <v>5.392451719118287</v>
+        <v>3.143506738586786</v>
       </c>
       <c r="D47">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E47">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F47">
-        <v>1.007166458658697</v>
+        <v>0.5871233929545273</v>
       </c>
       <c r="G47">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="H47">
-        <v>0.3679561137623791</v>
+        <v>0.2144984477126428</v>
       </c>
       <c r="I47">
-        <v>2.727149180744905</v>
+        <v>1.589779987535014</v>
       </c>
       <c r="J47">
-        <v>1.178095956952208</v>
+        <v>0.6867660152155506</v>
       </c>
       <c r="K47">
-        <v>1.560306357816183</v>
+        <v>0.9095739388199766</v>
       </c>
       <c r="L47">
-        <v>11.90777028200368</v>
+        <v>6.941583916330821</v>
       </c>
       <c r="M47">
-        <v>7.492996485660248</v>
+        <v>4.3680103544314</v>
       </c>
       <c r="N47">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O47">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P47">
-        <v>34.46223856805222</v>
+        <v>20.08961504122113</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2636,49 +2636,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.8442882083271809</v>
+        <v>0.4921742113659227</v>
       </c>
       <c r="C48">
-        <v>6.441226769838216</v>
+        <v>3.754885682882434</v>
       </c>
       <c r="D48">
-        <v>0.003809170393299627</v>
+        <v>0.002220539640125053</v>
       </c>
       <c r="E48">
-        <v>0.3623199506893765</v>
+        <v>0.2112128704793884</v>
       </c>
       <c r="F48">
-        <v>0.6568476904295852</v>
+        <v>0.3829065606225179</v>
       </c>
       <c r="G48">
-        <v>1.186477769730138</v>
+        <v>0.6916521572380339</v>
       </c>
       <c r="H48">
-        <v>0.2380892500815394</v>
+        <v>0.1387931132258276</v>
       </c>
       <c r="I48">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="J48">
-        <v>1.078538552139345</v>
+        <v>0.6287294505494476</v>
       </c>
       <c r="K48">
-        <v>1.428449482507773</v>
+        <v>0.832708535539415</v>
       </c>
       <c r="L48">
-        <v>8.825759150190954</v>
+        <v>5.144938667398142</v>
       </c>
       <c r="M48">
-        <v>5.553632689371712</v>
+        <v>3.237466497990332</v>
       </c>
       <c r="N48">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O48">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P48">
-        <v>28.65154446062579</v>
+        <v>16.70229568557411</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2686,49 +2686,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.07340305454894</v>
+        <v>0.6257357341246537</v>
       </c>
       <c r="C49">
-        <v>8.189185187704766</v>
+        <v>4.773850590041846</v>
       </c>
       <c r="D49">
-        <v>0.001015778771546567</v>
+        <v>0.0005921439040333475</v>
       </c>
       <c r="E49">
-        <v>0.09661865351716704</v>
+        <v>0.05632343212783691</v>
       </c>
       <c r="F49">
-        <v>1.226115688801893</v>
+        <v>0.7147589131620333</v>
       </c>
       <c r="G49">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="H49">
-        <v>0.2164447728013995</v>
+        <v>0.1261755574780252</v>
       </c>
       <c r="I49">
-        <v>1.604205400438179</v>
+        <v>0.9351646985500084</v>
       </c>
       <c r="J49">
-        <v>0.9789811473264826</v>
+        <v>0.570692885883345</v>
       </c>
       <c r="K49">
-        <v>1.296592607199364</v>
+        <v>0.7558431322588537</v>
       </c>
       <c r="L49">
-        <v>7.985210659696577</v>
+        <v>4.654944508598318</v>
       </c>
       <c r="M49">
-        <v>5.02471529038393</v>
+        <v>2.929136355324585</v>
       </c>
       <c r="N49">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O49">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P49">
-        <v>29.96074271197544</v>
+        <v>17.46548722434537</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.4060270291865412</v>
+        <v>0.6965091325141469</v>
       </c>
       <c r="C2">
-        <v>3.097653317764612</v>
+        <v>5.313793590314296</v>
       </c>
       <c r="D2">
-        <v>0.001776431712100043</v>
+        <v>0.003047336314639701</v>
       </c>
       <c r="E2">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="F2">
-        <v>0.5615962889130265</v>
+        <v>0.9633766126300588</v>
       </c>
       <c r="G2">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="H2">
-        <v>0.1009404459824201</v>
+        <v>0.1731558182411196</v>
       </c>
       <c r="I2">
-        <v>0.7481317588400066</v>
+        <v>1.283364320350543</v>
       </c>
       <c r="J2">
-        <v>0.6190566897717638</v>
+        <v>1.061945651337202</v>
       </c>
       <c r="K2">
-        <v>0.8198976349926549</v>
+        <v>1.406473336623038</v>
       </c>
       <c r="L2">
-        <v>4.818275894864923</v>
+        <v>8.265393489861371</v>
       </c>
       <c r="M2">
-        <v>3.031913069546501</v>
+        <v>5.201021090046522</v>
       </c>
       <c r="N2">
-        <v>0.04838617438965873</v>
+        <v>0.08300287893970713</v>
       </c>
       <c r="O2">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="P2">
-        <v>15.6381439902872</v>
+        <v>26.82607147270011</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.293167542455414</v>
+        <v>0.5029070874567608</v>
       </c>
       <c r="C3">
-        <v>2.23662797121491</v>
+        <v>3.836768727217065</v>
       </c>
       <c r="D3">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E3">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F3">
-        <v>0.5105420808300239</v>
+        <v>0.8757969205727804</v>
       </c>
       <c r="G3">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="H3">
-        <v>0.03154388936950629</v>
+        <v>0.05411119320034988</v>
       </c>
       <c r="I3">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="J3">
-        <v>0.7448025798816535</v>
+        <v>1.27765336176507</v>
       </c>
       <c r="K3">
-        <v>0.9864393421005379</v>
+        <v>1.692163233124593</v>
       </c>
       <c r="L3">
-        <v>4.001618963531886</v>
+        <v>6.86447933903741</v>
       </c>
       <c r="M3">
-        <v>2.518029498436925</v>
+        <v>4.319492091733554</v>
       </c>
       <c r="N3">
-        <v>0.04233790259095137</v>
+        <v>0.07262751907224374</v>
       </c>
       <c r="O3">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="P3">
-        <v>12.82512268717996</v>
+        <v>22.00054290752945</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.3472599591726997</v>
+        <v>0.5956986001765725</v>
       </c>
       <c r="C4">
-        <v>2.649308758614472</v>
+        <v>4.544691886453016</v>
       </c>
       <c r="D4">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E4">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F4">
-        <v>0.6381776010375301</v>
+        <v>1.094746150715975</v>
       </c>
       <c r="G4">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="H4">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I4">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J4">
-        <v>0.7061115367709181</v>
+        <v>1.211281758556496</v>
       </c>
       <c r="K4">
-        <v>0.9351957399134969</v>
+        <v>1.604258649585653</v>
       </c>
       <c r="L4">
-        <v>3.91995327039858</v>
+        <v>6.724387923955017</v>
       </c>
       <c r="M4">
-        <v>2.466641141325966</v>
+        <v>4.231339191902256</v>
       </c>
       <c r="N4">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O4">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P4">
-        <v>13.40956332793831</v>
+        <v>23.00310730457503</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.4367461794210493</v>
+        <v>0.7492055471451515</v>
       </c>
       <c r="C5">
-        <v>3.332015246411277</v>
+        <v>5.715824026423601</v>
       </c>
       <c r="D5">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E5">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F5">
-        <v>0.5871233929545273</v>
+        <v>1.007166458658697</v>
       </c>
       <c r="G5">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="H5">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I5">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J5">
-        <v>0.6770932544378667</v>
+        <v>1.161503056150065</v>
       </c>
       <c r="K5">
-        <v>0.8967630382732162</v>
+        <v>1.538330211931448</v>
       </c>
       <c r="L5">
-        <v>3.67495619099867</v>
+        <v>6.304113678707827</v>
       </c>
       <c r="M5">
-        <v>2.312476069993094</v>
+        <v>3.966880492408366</v>
       </c>
       <c r="N5">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O5">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P5">
-        <v>13.60032619357854</v>
+        <v>23.33034679483554</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.4454276784003669</v>
+        <v>0.7640980121495652</v>
       </c>
       <c r="C6">
-        <v>3.398247965376639</v>
+        <v>5.829441323584926</v>
       </c>
       <c r="D6">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E6">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F6">
-        <v>0.6126504969960285</v>
+        <v>1.050956304687336</v>
       </c>
       <c r="G6">
-        <v>1.106643451580854</v>
+        <v>1.898364431568221</v>
       </c>
       <c r="H6">
-        <v>0.06308777873901258</v>
+        <v>0.1082223864006998</v>
       </c>
       <c r="I6">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="J6">
-        <v>0.8898939915469107</v>
+        <v>1.526546873797227</v>
       </c>
       <c r="K6">
-        <v>1.178602850301941</v>
+        <v>2.021805421395618</v>
       </c>
       <c r="L6">
-        <v>4.083284656665189</v>
+        <v>7.004570754119806</v>
       </c>
       <c r="M6">
-        <v>2.569417855547881</v>
+        <v>4.40764499156485</v>
       </c>
       <c r="N6">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O6">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P6">
-        <v>15.13878457473138</v>
+        <v>25.96945758165358</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.3980133378210175</v>
+        <v>0.6827622417408411</v>
       </c>
       <c r="C7">
-        <v>3.036515423335048</v>
+        <v>5.208916085242302</v>
       </c>
       <c r="D7">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E7">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F7">
-        <v>0.7658131212450359</v>
+        <v>1.31369538085917</v>
       </c>
       <c r="G7">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="H7">
-        <v>0.06939655661291382</v>
+        <v>0.1190446250407697</v>
       </c>
       <c r="I7">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="J7">
-        <v>0.9769488385460648</v>
+        <v>1.675882981016521</v>
       </c>
       <c r="K7">
-        <v>1.293900955222784</v>
+        <v>2.219590734358232</v>
       </c>
       <c r="L7">
-        <v>3.67495619099867</v>
+        <v>6.304113678707827</v>
       </c>
       <c r="M7">
-        <v>2.312476069993094</v>
+        <v>3.966880492408366</v>
       </c>
       <c r="N7">
-        <v>0.09677234877931745</v>
+        <v>0.1660057578794143</v>
       </c>
       <c r="O7">
-        <v>0.4021915879807221</v>
+        <v>0.6899297187435258</v>
       </c>
       <c r="P7">
-        <v>15.03846048127698</v>
+        <v>25.79735907027567</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.4387496022624305</v>
+        <v>0.7526422698384773</v>
       </c>
       <c r="C8">
-        <v>3.34729972001867</v>
+        <v>5.742043402691597</v>
       </c>
       <c r="D8">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E8">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F8">
-        <v>0.9955570576185465</v>
+        <v>1.707803995116922</v>
       </c>
       <c r="G8">
-        <v>1.798295608818888</v>
+        <v>3.084842201298359</v>
       </c>
       <c r="H8">
-        <v>0.07570533448681512</v>
+        <v>0.1298668636808397</v>
       </c>
       <c r="I8">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="J8">
-        <v>0.6770932544378667</v>
+        <v>1.161503056150065</v>
       </c>
       <c r="K8">
-        <v>0.8967630382732162</v>
+        <v>1.538330211931448</v>
       </c>
       <c r="L8">
-        <v>3.021630645932241</v>
+        <v>5.183382358048654</v>
       </c>
       <c r="M8">
-        <v>1.901369213105432</v>
+        <v>3.261657293757989</v>
       </c>
       <c r="N8">
-        <v>0.04838617438965873</v>
+        <v>0.08300287893970713</v>
       </c>
       <c r="O8">
-        <v>0.201095793990361</v>
+        <v>0.3449648593717629</v>
       </c>
       <c r="P8">
-        <v>14.09110430853584</v>
+        <v>24.17224010373834</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.4814892895452241</v>
+        <v>0.8259590206294407</v>
       </c>
       <c r="C9">
-        <v>3.673368490309681</v>
+        <v>6.301390096408891</v>
       </c>
       <c r="D9">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E9">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F9">
-        <v>0.9189757454940429</v>
+        <v>1.576434457031005</v>
       </c>
       <c r="G9">
-        <v>1.659965177371281</v>
+        <v>2.84754664735233</v>
       </c>
       <c r="H9">
-        <v>0.1324843353519264</v>
+        <v>0.2272670114414695</v>
       </c>
       <c r="I9">
-        <v>0.9819229334775083</v>
+        <v>1.684415670460089</v>
       </c>
       <c r="J9">
-        <v>0.7931663837700725</v>
+        <v>1.360617865775789</v>
       </c>
       <c r="K9">
-        <v>1.050493844834339</v>
+        <v>1.802043962548268</v>
       </c>
       <c r="L9">
-        <v>2.368305100865809</v>
+        <v>4.062651037389488</v>
       </c>
       <c r="M9">
-        <v>1.490262356217772</v>
+        <v>2.556434095107613</v>
       </c>
       <c r="N9">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O9">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P9">
-        <v>13.79173325152297</v>
+        <v>23.65869134902212</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.6858384193660814</v>
+        <v>1.176504735348731</v>
       </c>
       <c r="C10">
-        <v>5.232384798263581</v>
+        <v>8.975766475744706</v>
       </c>
       <c r="D10">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E10">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F10">
-        <v>0.7658131212450359</v>
+        <v>1.31369538085917</v>
       </c>
       <c r="G10">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="H10">
-        <v>0.1135580017302226</v>
+        <v>0.1948002955212595</v>
       </c>
       <c r="I10">
-        <v>0.8416482286950077</v>
+        <v>1.443784860394361</v>
       </c>
       <c r="J10">
-        <v>0.6674204936601827</v>
+        <v>1.14491015534792</v>
       </c>
       <c r="K10">
-        <v>0.883952137726456</v>
+        <v>1.516354066046713</v>
       </c>
       <c r="L10">
-        <v>1.878310942065987</v>
+        <v>3.222102546895111</v>
       </c>
       <c r="M10">
-        <v>1.181932213552025</v>
+        <v>2.027516696119831</v>
       </c>
       <c r="N10">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O10">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P10">
-        <v>13.88696370104237</v>
+        <v>23.82205209354342</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,43 +930,43 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.683834996524701</v>
+        <v>1.173068012655405</v>
       </c>
       <c r="C11">
-        <v>5.21710032465619</v>
+        <v>8.949547099476709</v>
       </c>
       <c r="D11">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E11">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F11">
-        <v>0.6381776010375301</v>
+        <v>1.094746150715975</v>
       </c>
       <c r="G11">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="H11">
-        <v>0.1703370025953339</v>
+        <v>0.2922004432818894</v>
       </c>
       <c r="I11">
-        <v>1.262472343042511</v>
+        <v>2.165677290591542</v>
       </c>
       <c r="J11">
-        <v>0.3869104311073523</v>
+        <v>0.6637160320857507</v>
       </c>
       <c r="K11">
-        <v>0.5124360218704093</v>
+        <v>0.8790458353893992</v>
       </c>
       <c r="L11">
-        <v>1.95997663519929</v>
+        <v>3.362193961977508</v>
       </c>
       <c r="M11">
-        <v>1.233320570662983</v>
+        <v>2.115669595951128</v>
       </c>
       <c r="P11">
-        <v>13.33115067415676</v>
+        <v>22.86859623625296</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -974,43 +974,43 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.5315748605797482</v>
+        <v>0.9118770879626007</v>
       </c>
       <c r="C12">
-        <v>4.05548033049446</v>
+        <v>6.956874503108848</v>
       </c>
       <c r="D12">
-        <v>0.002220539640125053</v>
+        <v>0.003809170393299627</v>
       </c>
       <c r="E12">
-        <v>0.2112128704793884</v>
+        <v>0.3623199506893765</v>
       </c>
       <c r="F12">
-        <v>0.4594878727470215</v>
+        <v>0.7882172285155024</v>
       </c>
       <c r="G12">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="H12">
-        <v>0.1451018910997289</v>
+        <v>0.2489114887216095</v>
       </c>
       <c r="I12">
-        <v>1.07543940333251</v>
+        <v>1.844836210503906</v>
       </c>
       <c r="J12">
-        <v>0.4546197565511391</v>
+        <v>0.7798663377007572</v>
       </c>
       <c r="K12">
-        <v>0.6021123256977309</v>
+        <v>1.032878856582544</v>
       </c>
       <c r="L12">
-        <v>1.878310942065987</v>
+        <v>3.222102546895111</v>
       </c>
       <c r="M12">
-        <v>1.181932213552025</v>
+        <v>2.027516696119831</v>
       </c>
       <c r="P12">
-        <v>11.4274755949255</v>
+        <v>19.60298340086955</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,49 +1018,49 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.4260612576003509</v>
+        <v>0.7308763594474105</v>
       </c>
       <c r="C13">
-        <v>3.250498053838524</v>
+        <v>5.575987352994278</v>
       </c>
       <c r="D13">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E13">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F13">
-        <v>0.5615962889130265</v>
+        <v>0.9633766126300588</v>
       </c>
       <c r="G13">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="H13">
-        <v>0.1009404459824201</v>
+        <v>0.1731558182411196</v>
       </c>
       <c r="I13">
-        <v>0.7481317588400066</v>
+        <v>1.283364320350543</v>
       </c>
       <c r="J13">
-        <v>0.2708373017751466</v>
+        <v>0.4646012224600256</v>
       </c>
       <c r="K13">
-        <v>0.3587052153092865</v>
+        <v>0.6153320847725794</v>
       </c>
       <c r="L13">
-        <v>3.348293418465455</v>
+        <v>5.743748018378244</v>
       </c>
       <c r="M13">
-        <v>2.106922641549263</v>
+        <v>3.614268893083176</v>
       </c>
       <c r="N13">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O13">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P13">
-        <v>12.37411262635774</v>
+        <v>21.22686873404453</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.3185442317795729</v>
+        <v>0.5464389082388952</v>
       </c>
       <c r="C14">
-        <v>2.430231303575198</v>
+        <v>4.16888082661171</v>
       </c>
       <c r="D14">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E14">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F14">
-        <v>0.3063252484980142</v>
+        <v>0.5254781523436681</v>
       </c>
       <c r="G14">
-        <v>0.553321725790427</v>
+        <v>0.9491822157841104</v>
       </c>
       <c r="H14">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I14">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J14">
-        <v>0.2031279763313601</v>
+        <v>0.3484509168450192</v>
       </c>
       <c r="K14">
-        <v>0.2690289114819648</v>
+        <v>0.4614990635794344</v>
       </c>
       <c r="L14">
-        <v>3.429959111598756</v>
+        <v>5.883839433460638</v>
       </c>
       <c r="M14">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="P14">
-        <v>10.26028377499187</v>
+        <v>17.60075275231319</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,43 +1112,43 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.2096915907312072</v>
+        <v>0.3597103085681613</v>
       </c>
       <c r="C15">
-        <v>1.599774904240278</v>
+        <v>2.744294716050474</v>
       </c>
       <c r="D15">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E15">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F15">
-        <v>0.3063252484980142</v>
+        <v>0.5254781523436681</v>
       </c>
       <c r="G15">
-        <v>0.553321725790427</v>
+        <v>0.9491822157841104</v>
       </c>
       <c r="H15">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I15">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J15">
-        <v>0.2418190194420952</v>
+        <v>0.4148225200535943</v>
       </c>
       <c r="K15">
-        <v>0.3202725136690058</v>
+        <v>0.5494036471183743</v>
       </c>
       <c r="L15">
-        <v>2.123308021465898</v>
+        <v>3.642376792142301</v>
       </c>
       <c r="M15">
-        <v>1.336097284884899</v>
+        <v>2.291975395613722</v>
       </c>
       <c r="P15">
-        <v>7.324731258022082</v>
+        <v>12.56503101442618</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.1048457953656036</v>
+        <v>0.1798551542840806</v>
       </c>
       <c r="C16">
-        <v>0.7998874521201389</v>
+        <v>1.372147358025237</v>
       </c>
       <c r="D16">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E16">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F16">
-        <v>0.1786897282905083</v>
+        <v>0.3065289222004732</v>
       </c>
       <c r="G16">
-        <v>0.3227710067110824</v>
+        <v>0.5536896258740643</v>
       </c>
       <c r="H16">
-        <v>0.04416144511730881</v>
+        <v>0.07575567048048981</v>
       </c>
       <c r="I16">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="J16">
-        <v>0.1064003685545219</v>
+        <v>0.1825219088235815</v>
       </c>
       <c r="K16">
-        <v>0.1409199060143626</v>
+        <v>0.2417376047320847</v>
       </c>
       <c r="L16">
-        <v>1.633313862666076</v>
+        <v>2.801828301647922</v>
       </c>
       <c r="M16">
-        <v>1.027767142219153</v>
+        <v>1.76305799662594</v>
       </c>
       <c r="P16">
-        <v>4.814124397622966</v>
+        <v>8.258271905496841</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.0761300679724765</v>
+        <v>0.1305954623464025</v>
       </c>
       <c r="C17">
-        <v>0.5808099970808647</v>
+        <v>0.9963362981839307</v>
       </c>
       <c r="D17">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E17">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F17">
-        <v>0.02552710404150119</v>
+        <v>0.04378984602863903</v>
       </c>
       <c r="G17">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="H17">
-        <v>0.03154388936950629</v>
+        <v>0.05411119320034988</v>
       </c>
       <c r="I17">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="J17">
-        <v>0.1160731293322058</v>
+        <v>0.1991148096257252</v>
       </c>
       <c r="K17">
-        <v>0.1537308065611228</v>
+        <v>0.2637137506168197</v>
       </c>
       <c r="L17">
-        <v>1.061654010732949</v>
+        <v>1.82118839607115</v>
       </c>
       <c r="M17">
-        <v>0.6680486424424494</v>
+        <v>1.145987697806861</v>
       </c>
       <c r="P17">
-        <v>3.107250118050187</v>
+        <v>5.33025618654886</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,43 +1244,43 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.04474311012417478</v>
+        <v>0.07675347348428915</v>
       </c>
       <c r="C18">
-        <v>0.3413532438984033</v>
+        <v>0.5855660699852926</v>
       </c>
       <c r="D18">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E18">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F18">
-        <v>0.1021084161660048</v>
+        <v>0.1751593841145561</v>
       </c>
       <c r="G18">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="H18">
-        <v>0.01892633362170378</v>
+        <v>0.03246671592020992</v>
       </c>
       <c r="I18">
-        <v>0.1402747047825013</v>
+        <v>0.2406308100657269</v>
       </c>
       <c r="J18">
-        <v>0.09672760777683809</v>
+        <v>0.1659290080214377</v>
       </c>
       <c r="K18">
-        <v>0.1281090054676023</v>
+        <v>0.2197614588473498</v>
       </c>
       <c r="L18">
-        <v>1.061654010732949</v>
+        <v>1.82118839607115</v>
       </c>
       <c r="M18">
-        <v>0.6680486424424494</v>
+        <v>1.145987697806861</v>
       </c>
       <c r="P18">
-        <v>2.985590166387648</v>
+        <v>5.121557599255408</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,37 +1288,37 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.03539380353106362</v>
+        <v>0.0607154342487661</v>
       </c>
       <c r="C19">
-        <v>0.2700257003972442</v>
+        <v>0.4632089807346346</v>
       </c>
       <c r="D19">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E19">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F19">
-        <v>0.02552710404150119</v>
+        <v>0.04378984602863903</v>
       </c>
       <c r="G19">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="J19">
-        <v>0.09672760777683809</v>
+        <v>0.1659290080214377</v>
       </c>
       <c r="K19">
-        <v>0.1281090054676023</v>
+        <v>0.2197614588473498</v>
       </c>
       <c r="L19">
-        <v>1.143319703866253</v>
+        <v>1.961279811153547</v>
       </c>
       <c r="M19">
-        <v>0.7194369995534069</v>
+        <v>1.234140597638158</v>
       </c>
       <c r="P19">
-        <v>2.550023432497584</v>
+        <v>4.374375303087612</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1326,43 +1326,43 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.03138695784830171</v>
+        <v>0.0538419888621133</v>
       </c>
       <c r="C20">
-        <v>0.2394567531824619</v>
+        <v>0.4107702281986378</v>
       </c>
       <c r="D20">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E20">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F20">
-        <v>0.1021084161660048</v>
+        <v>0.1751593841145561</v>
       </c>
       <c r="G20">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="H20">
-        <v>0.006308777873901258</v>
+        <v>0.01082223864006997</v>
       </c>
       <c r="I20">
-        <v>0.04675823492750041</v>
+        <v>0.08021027002190896</v>
       </c>
       <c r="J20">
-        <v>0.1644369332206248</v>
+        <v>0.2820793136364441</v>
       </c>
       <c r="K20">
-        <v>0.217785309294924</v>
+        <v>0.3735944800404946</v>
       </c>
       <c r="L20">
-        <v>1.551648169532773</v>
+        <v>2.661736886565526</v>
       </c>
       <c r="M20">
-        <v>0.9763787851081951</v>
+        <v>1.674905096794643</v>
       </c>
       <c r="P20">
-        <v>3.563395594442064</v>
+        <v>6.112739783018966</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,43 +1370,43 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.06477733853798438</v>
+        <v>0.111120700417553</v>
       </c>
       <c r="C21">
-        <v>0.4941979799723148</v>
+        <v>0.8477598326652742</v>
       </c>
       <c r="D21">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E21">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F21">
-        <v>0.1531626242490071</v>
+        <v>0.2627390761718341</v>
       </c>
       <c r="G21">
-        <v>0.2766608628952135</v>
+        <v>0.4745911078920552</v>
       </c>
       <c r="H21">
-        <v>0.01892633362170378</v>
+        <v>0.03246671592020992</v>
       </c>
       <c r="I21">
-        <v>0.1402747047825013</v>
+        <v>0.2406308100657269</v>
       </c>
       <c r="J21">
-        <v>0.1547641724429409</v>
+        <v>0.2654864128343004</v>
       </c>
       <c r="K21">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="L21">
-        <v>3.511624804732062</v>
+        <v>6.023930848543034</v>
       </c>
       <c r="M21">
-        <v>2.209699355771179</v>
+        <v>3.79057469274577</v>
       </c>
       <c r="P21">
-        <v>7.271749267776974</v>
+        <v>12.47414435562805</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,43 +1414,43 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.1702909415173816</v>
+        <v>0.2921214289327425</v>
       </c>
       <c r="C22">
-        <v>1.29918025662825</v>
+        <v>2.228646982779845</v>
       </c>
       <c r="D22">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E22">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F22">
-        <v>0.5105420808300239</v>
+        <v>0.8757969205727804</v>
       </c>
       <c r="G22">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="H22">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I22">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J22">
-        <v>0.2514917802197791</v>
+        <v>0.4314154208557381</v>
       </c>
       <c r="K22">
-        <v>0.3330834142157661</v>
+        <v>0.5713797930031094</v>
       </c>
       <c r="L22">
-        <v>6.614921143797604</v>
+        <v>11.34740462167409</v>
       </c>
       <c r="M22">
-        <v>4.162456925987568</v>
+        <v>7.140384886335061</v>
       </c>
       <c r="P22">
-        <v>14.78445921675027</v>
+        <v>25.36163881596789</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,49 +1458,49 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.391335261683081</v>
+        <v>0.6713064994297533</v>
       </c>
       <c r="C23">
-        <v>2.985567177977077</v>
+        <v>5.121518164348978</v>
       </c>
       <c r="D23">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E23">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F23">
-        <v>0.4339607687055203</v>
+        <v>0.744427382486863</v>
       </c>
       <c r="G23">
-        <v>0.7838724448697716</v>
+        <v>1.344674805694156</v>
       </c>
       <c r="H23">
-        <v>0.2144984477126428</v>
+        <v>0.3679561137623791</v>
       </c>
       <c r="I23">
-        <v>1.589779987535014</v>
+        <v>2.727149180744905</v>
       </c>
       <c r="J23">
-        <v>0.6770932544378667</v>
+        <v>1.161503056150065</v>
       </c>
       <c r="K23">
-        <v>0.8967630382732162</v>
+        <v>1.538330211931448</v>
       </c>
       <c r="L23">
-        <v>6.043261291864482</v>
+        <v>10.36676471609731</v>
       </c>
       <c r="M23">
-        <v>3.802738426210865</v>
+        <v>6.523314587515978</v>
       </c>
       <c r="N23">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O23">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P23">
-        <v>18.02898444750735</v>
+        <v>30.92738023575064</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1508,49 +1508,49 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.5061981712555894</v>
+        <v>0.8683452671804658</v>
       </c>
       <c r="C24">
-        <v>3.861876998134172</v>
+        <v>6.6247624037142</v>
       </c>
       <c r="D24">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E24">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F24">
-        <v>0.4339607687055203</v>
+        <v>0.744427382486863</v>
       </c>
       <c r="G24">
-        <v>0.7838724448697716</v>
+        <v>1.344674805694156</v>
       </c>
       <c r="H24">
-        <v>0.1324843353519264</v>
+        <v>0.2272670114414695</v>
       </c>
       <c r="I24">
-        <v>0.9819229334775083</v>
+        <v>1.684415670460089</v>
       </c>
       <c r="J24">
-        <v>0.6093839289940803</v>
+        <v>1.045352750535057</v>
       </c>
       <c r="K24">
-        <v>0.8070867344458946</v>
+        <v>1.384497190738303</v>
       </c>
       <c r="L24">
-        <v>4.899941587998224</v>
+        <v>8.405484904943771</v>
       </c>
       <c r="M24">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="N24">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O24">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P24">
-        <v>16.32437257213593</v>
+        <v>28.00324550273318</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1558,49 +1558,49 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.5950165838901453</v>
+        <v>1.020706639917935</v>
       </c>
       <c r="C25">
-        <v>4.539488661395179</v>
+        <v>7.787154751595455</v>
       </c>
       <c r="D25">
-        <v>0.0007401798800416845</v>
+        <v>0.001269723464433209</v>
       </c>
       <c r="E25">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="F25">
-        <v>0.7402860172035344</v>
+        <v>1.269905534830532</v>
       </c>
       <c r="G25">
-        <v>1.337194170660199</v>
+        <v>2.293857021478267</v>
       </c>
       <c r="H25">
-        <v>0.1198667796041239</v>
+        <v>0.2056225341613295</v>
       </c>
       <c r="I25">
-        <v>0.8884064636225077</v>
+        <v>1.52399513041627</v>
       </c>
       <c r="J25">
-        <v>0.5126563212172419</v>
+        <v>0.87942374251362</v>
       </c>
       <c r="K25">
-        <v>0.6789777289782926</v>
+        <v>1.164735731890954</v>
       </c>
       <c r="L25">
-        <v>3.91995327039858</v>
+        <v>6.724387923955017</v>
       </c>
       <c r="M25">
-        <v>2.466641141325966</v>
+        <v>4.231339191902256</v>
       </c>
       <c r="N25">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O25">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P25">
-        <v>16.05674308462062</v>
+        <v>27.54414704675613</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1608,49 +1608,49 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.4848283276141925</v>
+        <v>0.8316868917849842</v>
       </c>
       <c r="C26">
-        <v>3.698842612988667</v>
+        <v>6.345089056855556</v>
       </c>
       <c r="D26">
-        <v>0.00236857561613339</v>
+        <v>0.004063115086186268</v>
       </c>
       <c r="E26">
-        <v>0.2252937285113476</v>
+        <v>0.3864746140686682</v>
       </c>
       <c r="F26">
-        <v>0.663704705079031</v>
+        <v>1.138535996744615</v>
       </c>
       <c r="G26">
-        <v>1.198863739212592</v>
+        <v>2.056561467532239</v>
       </c>
       <c r="H26">
-        <v>0.1198667796041239</v>
+        <v>0.2056225341613295</v>
       </c>
       <c r="I26">
-        <v>0.8884064636225077</v>
+        <v>1.52399513041627</v>
       </c>
       <c r="J26">
-        <v>0.7738208622147047</v>
+        <v>1.327432064171501</v>
       </c>
       <c r="K26">
-        <v>1.024872043740819</v>
+        <v>1.758091670778798</v>
       </c>
       <c r="L26">
-        <v>5.879929905597874</v>
+        <v>10.08658188593252</v>
       </c>
       <c r="M26">
-        <v>3.699961711988951</v>
+        <v>6.347008787853384</v>
       </c>
       <c r="N26">
-        <v>0.04233790259095137</v>
+        <v>0.07262751907224374</v>
       </c>
       <c r="O26">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="P26">
-        <v>18.87905617812346</v>
+        <v>32.38561498640858</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1658,49 +1658,49 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.3505989972416681</v>
+        <v>0.6014264713321166</v>
       </c>
       <c r="C27">
-        <v>2.674782881293456</v>
+        <v>4.588390846899682</v>
       </c>
       <c r="D27">
-        <v>0.001776431712100043</v>
+        <v>0.003047336314639701</v>
       </c>
       <c r="E27">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="F27">
-        <v>0.6126504969960285</v>
+        <v>1.050956304687336</v>
       </c>
       <c r="G27">
-        <v>1.106643451580854</v>
+        <v>1.898364431568221</v>
       </c>
       <c r="H27">
-        <v>0.04416144511730881</v>
+        <v>0.07575567048048981</v>
       </c>
       <c r="I27">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="J27">
-        <v>0.9382577954353296</v>
+        <v>1.609511377807946</v>
       </c>
       <c r="K27">
-        <v>1.242657353035743</v>
+        <v>2.131686150819293</v>
       </c>
       <c r="L27">
-        <v>4.899941587998224</v>
+        <v>8.405484904943771</v>
       </c>
       <c r="M27">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="N27">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O27">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P27">
-        <v>15.6381612842292</v>
+        <v>26.82610113916978</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1708,49 +1708,49 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.3786469170210015</v>
+        <v>0.6495405890386859</v>
       </c>
       <c r="C28">
-        <v>2.888765511796933</v>
+        <v>4.955462114651655</v>
       </c>
       <c r="D28">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E28">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F28">
-        <v>0.6892318091205323</v>
+        <v>1.182325842773253</v>
       </c>
       <c r="G28">
-        <v>1.244973883028461</v>
+        <v>2.135659985514248</v>
       </c>
       <c r="H28">
-        <v>0.06308777873901258</v>
+        <v>0.1082223864006998</v>
       </c>
       <c r="I28">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="J28">
-        <v>0.7738208622147047</v>
+        <v>1.327432064171501</v>
       </c>
       <c r="K28">
-        <v>1.024872043740819</v>
+        <v>1.758091670778798</v>
       </c>
       <c r="L28">
-        <v>4.246616042931795</v>
+        <v>7.284753584284601</v>
       </c>
       <c r="M28">
-        <v>2.672194569769798</v>
+        <v>4.583950791227444</v>
       </c>
       <c r="N28">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O28">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P28">
-        <v>14.58057927174134</v>
+        <v>25.01189795285416</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1758,49 +1758,49 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.4180475662348269</v>
+        <v>0.7171294686741044</v>
       </c>
       <c r="C29">
-        <v>3.189360159408961</v>
+        <v>5.471109847922285</v>
       </c>
       <c r="D29">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E29">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F29">
-        <v>0.5105420808300239</v>
+        <v>0.8757969205727804</v>
       </c>
       <c r="G29">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="H29">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I29">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J29">
-        <v>0.7931663837700725</v>
+        <v>1.360617865775789</v>
       </c>
       <c r="K29">
-        <v>1.050493844834339</v>
+        <v>1.802043962548268</v>
       </c>
       <c r="L29">
-        <v>2.939964952798937</v>
+        <v>5.043290942966258</v>
       </c>
       <c r="M29">
-        <v>1.849980855994475</v>
+        <v>3.173504393926692</v>
       </c>
       <c r="N29">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O29">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P29">
-        <v>12.43262065367928</v>
+        <v>21.32723489793387</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1808,49 +1808,49 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.4594516382900334</v>
+        <v>0.7881550710028502</v>
       </c>
       <c r="C30">
-        <v>3.505239280628377</v>
+        <v>6.012976957460912</v>
       </c>
       <c r="D30">
-        <v>0.001776431712100043</v>
+        <v>0.003047336314639701</v>
       </c>
       <c r="E30">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="F30">
-        <v>0.6381776010375301</v>
+        <v>1.094746150715975</v>
       </c>
       <c r="G30">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="H30">
-        <v>0.05677900086511132</v>
+        <v>0.09740014776062976</v>
       </c>
       <c r="I30">
-        <v>0.4208241143475038</v>
+        <v>0.7218924301971807</v>
       </c>
       <c r="J30">
-        <v>0.6287294505494476</v>
+        <v>1.078538552139345</v>
       </c>
       <c r="K30">
-        <v>0.832708535539415</v>
+        <v>1.428449482507773</v>
       </c>
       <c r="L30">
-        <v>3.429959111598756</v>
+        <v>5.883839433460638</v>
       </c>
       <c r="M30">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="N30">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O30">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P30">
-        <v>13.48486530105623</v>
+        <v>23.13228223186508</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1858,49 +1858,49 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.4300681032831129</v>
+        <v>0.737749804834063</v>
       </c>
       <c r="C31">
-        <v>3.281067001053306</v>
+        <v>5.628426105530274</v>
       </c>
       <c r="D31">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E31">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F31">
-        <v>0.6381776010375301</v>
+        <v>1.094746150715975</v>
       </c>
       <c r="G31">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="H31">
-        <v>0.05047022299121007</v>
+        <v>0.08657790912055978</v>
       </c>
       <c r="I31">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="J31">
-        <v>0.9479305562130136</v>
+        <v>1.626104278610089</v>
       </c>
       <c r="K31">
-        <v>1.255468253582503</v>
+        <v>2.153662296704028</v>
       </c>
       <c r="L31">
-        <v>3.266627725332153</v>
+        <v>5.603656603295844</v>
       </c>
       <c r="M31">
-        <v>2.055534284438305</v>
+        <v>3.526115993251881</v>
       </c>
       <c r="N31">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O31">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P31">
-        <v>13.73614949905708</v>
+        <v>23.56334156088249</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1908,49 +1908,49 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.4868317504555734</v>
+        <v>0.8351236144783105</v>
       </c>
       <c r="C32">
-        <v>3.714127086596059</v>
+        <v>6.371308433123556</v>
       </c>
       <c r="D32">
-        <v>0.00192446768810838</v>
+        <v>0.003301281007526343</v>
       </c>
       <c r="E32">
-        <v>0.1830511544154699</v>
+        <v>0.3140106239307929</v>
       </c>
       <c r="F32">
-        <v>0.4850149767885227</v>
+        <v>0.8320070745441415</v>
       </c>
       <c r="G32">
-        <v>0.8760927325015095</v>
+        <v>1.502871841658175</v>
       </c>
       <c r="H32">
-        <v>0.05047022299121007</v>
+        <v>0.08657790912055978</v>
       </c>
       <c r="I32">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="J32">
-        <v>0.6674204936601827</v>
+        <v>1.14491015534792</v>
       </c>
       <c r="K32">
-        <v>0.883952137726456</v>
+        <v>1.516354066046713</v>
       </c>
       <c r="L32">
-        <v>3.429959111598756</v>
+        <v>5.883839433460638</v>
       </c>
       <c r="M32">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="N32">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O32">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P32">
-        <v>13.40477675064458</v>
+        <v>22.99489628767488</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1958,49 +1958,49 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.5282358225107797</v>
+        <v>0.906149216807056</v>
       </c>
       <c r="C33">
-        <v>4.030006207815475</v>
+        <v>6.913175542662182</v>
       </c>
       <c r="D33">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E33">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F33">
-        <v>0.8934486414525419</v>
+        <v>1.532644611002366</v>
       </c>
       <c r="G33">
-        <v>1.613855033555412</v>
+        <v>2.768448129370321</v>
       </c>
       <c r="H33">
-        <v>0.1198667796041239</v>
+        <v>0.2056225341613295</v>
       </c>
       <c r="I33">
-        <v>0.8884064636225077</v>
+        <v>1.52399513041627</v>
       </c>
       <c r="J33">
-        <v>0.8125119053254403</v>
+        <v>1.393803667380077</v>
       </c>
       <c r="K33">
-        <v>1.076115645927859</v>
+        <v>1.845996254317738</v>
       </c>
       <c r="L33">
-        <v>2.041642328332594</v>
+        <v>3.502285377059903</v>
       </c>
       <c r="M33">
-        <v>1.284708927773941</v>
+        <v>2.203822495782425</v>
       </c>
       <c r="N33">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O33">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P33">
-        <v>13.55855513822193</v>
+        <v>23.25869165998176</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.6317460026487962</v>
+        <v>1.083713222628919</v>
       </c>
       <c r="C34">
-        <v>4.819704010864018</v>
+        <v>8.267843316508756</v>
       </c>
       <c r="D34">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E34">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F34">
-        <v>0.8168673293280381</v>
+        <v>1.401275072916449</v>
       </c>
       <c r="G34">
-        <v>1.475524602107805</v>
+        <v>2.531152575424294</v>
       </c>
       <c r="H34">
-        <v>0.1387931132258276</v>
+        <v>0.2380892500815394</v>
       </c>
       <c r="I34">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="J34">
-        <v>0.5513473643279773</v>
+        <v>0.9457953457221949</v>
       </c>
       <c r="K34">
-        <v>0.7302213311653333</v>
+        <v>1.252640315429894</v>
       </c>
       <c r="L34">
-        <v>1.306651090132861</v>
+        <v>2.241462641318338</v>
       </c>
       <c r="M34">
-        <v>0.8222137137753223</v>
+        <v>1.410446397300752</v>
       </c>
       <c r="N34">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O34">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P34">
-        <v>12.50945280611613</v>
+        <v>21.45903473389603</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,43 +2058,43 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.6651363833384787</v>
+        <v>1.140991934184359</v>
       </c>
       <c r="C35">
-        <v>5.074445237653867</v>
+        <v>8.704832920975393</v>
       </c>
       <c r="D35">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E35">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F35">
-        <v>0.5871233929545273</v>
+        <v>1.007166458658697</v>
       </c>
       <c r="G35">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="H35">
-        <v>0.1703370025953339</v>
+        <v>0.2922004432818894</v>
       </c>
       <c r="I35">
-        <v>1.262472343042511</v>
+        <v>2.165677290591542</v>
       </c>
       <c r="J35">
-        <v>0.2901828233305144</v>
+        <v>0.4977870240643132</v>
       </c>
       <c r="K35">
-        <v>0.3843270164028069</v>
+        <v>0.6592843765420494</v>
       </c>
       <c r="L35">
-        <v>1.796645248932683</v>
+        <v>3.082011131812715</v>
       </c>
       <c r="M35">
-        <v>1.130543856441068</v>
+        <v>1.939363796288534</v>
       </c>
       <c r="P35">
-        <v>12.52134887051255</v>
+        <v>21.47944154649095</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2102,43 +2102,43 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.6210610808280976</v>
+        <v>1.065384034931178</v>
       </c>
       <c r="C36">
-        <v>4.738186818291267</v>
+        <v>8.128006643079434</v>
       </c>
       <c r="D36">
-        <v>0.0007401798800416845</v>
+        <v>0.001269723464433209</v>
       </c>
       <c r="E36">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="F36">
-        <v>0.6126504969960285</v>
+        <v>1.050956304687336</v>
       </c>
       <c r="G36">
-        <v>1.106643451580854</v>
+        <v>1.898364431568221</v>
       </c>
       <c r="H36">
-        <v>0.1261755574780252</v>
+        <v>0.2164447728013995</v>
       </c>
       <c r="I36">
-        <v>0.9351646985500084</v>
+        <v>1.604205400438179</v>
       </c>
       <c r="J36">
-        <v>0.4062559526627201</v>
+        <v>0.6969018336900383</v>
       </c>
       <c r="K36">
-        <v>0.5380578229639297</v>
+        <v>0.9229981271588689</v>
       </c>
       <c r="L36">
-        <v>2.694967873399024</v>
+        <v>4.623016697719071</v>
       </c>
       <c r="M36">
-        <v>1.695815784661602</v>
+        <v>2.909045694432801</v>
       </c>
       <c r="P36">
-        <v>13.5461240074514</v>
+        <v>23.23736698086742</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2146,43 +2146,43 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.3846571855451446</v>
+        <v>0.6598507571186656</v>
       </c>
       <c r="C37">
-        <v>2.934618932619109</v>
+        <v>5.034120243455649</v>
       </c>
       <c r="D37">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E37">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F37">
-        <v>0.5615962889130265</v>
+        <v>0.9633766126300588</v>
       </c>
       <c r="G37">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="H37">
-        <v>0.1514106689736302</v>
+        <v>0.2597337273616793</v>
       </c>
       <c r="I37">
-        <v>1.12219763826001</v>
+        <v>1.925046480525815</v>
       </c>
       <c r="J37">
-        <v>0.1934552155536762</v>
+        <v>0.3318580160428753</v>
       </c>
       <c r="K37">
-        <v>0.2562180109352046</v>
+        <v>0.4395229176946996</v>
       </c>
       <c r="L37">
-        <v>2.776633566532331</v>
+        <v>4.763108112801466</v>
       </c>
       <c r="M37">
-        <v>1.74720414177256</v>
+        <v>2.997198594264098</v>
       </c>
       <c r="P37">
-        <v>11.29893264714145</v>
+        <v>19.38247754629317</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2190,43 +2190,43 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.3298969612140649</v>
+        <v>0.565913670167744</v>
       </c>
       <c r="C38">
-        <v>2.516843320683747</v>
+        <v>4.317457292130365</v>
       </c>
       <c r="D38">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E38">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F38">
-        <v>0.4594878727470215</v>
+        <v>0.7882172285155024</v>
       </c>
       <c r="G38">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="H38">
-        <v>0.06308777873901258</v>
+        <v>0.1082223864006998</v>
       </c>
       <c r="I38">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="J38">
-        <v>0.2611645409974629</v>
+        <v>0.4480083216578818</v>
       </c>
       <c r="K38">
-        <v>0.3458943147625262</v>
+        <v>0.5933559388878443</v>
       </c>
       <c r="L38">
-        <v>2.694967873399024</v>
+        <v>4.623016697719071</v>
       </c>
       <c r="M38">
-        <v>1.695815784661602</v>
+        <v>2.909045694432801</v>
       </c>
       <c r="P38">
-        <v>9.792783431236817</v>
+        <v>16.79879072645677</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2234,49 +2234,49 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.2290580115312233</v>
+        <v>0.3929319612703159</v>
       </c>
       <c r="C39">
-        <v>1.747524815778391</v>
+        <v>2.997748686641122</v>
       </c>
       <c r="D39">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E39">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F39">
-        <v>0.2807981444565132</v>
+        <v>0.4816883063150294</v>
       </c>
       <c r="G39">
-        <v>0.5072115819745582</v>
+        <v>0.870083697802101</v>
       </c>
       <c r="H39">
-        <v>0.08201411236071635</v>
+        <v>0.1406891023209097</v>
       </c>
       <c r="I39">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="J39">
-        <v>0.1547641724429409</v>
+        <v>0.2654864128343004</v>
       </c>
       <c r="K39">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="L39">
-        <v>2.204973714599202</v>
+        <v>3.782468207224696</v>
       </c>
       <c r="M39">
-        <v>1.387485641995856</v>
+        <v>2.380128295445019</v>
       </c>
       <c r="N39">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O39">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P39">
-        <v>7.637051420104119</v>
+        <v>13.1007929945935</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2284,43 +2284,43 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.1429108293518418</v>
+        <v>0.2451528854572818</v>
       </c>
       <c r="C40">
-        <v>1.090292450660571</v>
+        <v>1.870315507117203</v>
       </c>
       <c r="D40">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E40">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F40">
-        <v>0.1021084161660048</v>
+        <v>0.1751593841145561</v>
       </c>
       <c r="G40">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="H40">
-        <v>0.04416144511730881</v>
+        <v>0.07575567048048981</v>
       </c>
       <c r="I40">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="J40">
-        <v>0.1450914116652572</v>
+        <v>0.2488935120321566</v>
       </c>
       <c r="K40">
-        <v>0.1921635082014035</v>
+        <v>0.3296421882710247</v>
       </c>
       <c r="L40">
-        <v>1.061654010732949</v>
+        <v>1.82118839607115</v>
       </c>
       <c r="M40">
-        <v>0.6680486424424494</v>
+        <v>1.145987697806861</v>
       </c>
       <c r="P40">
-        <v>4.086238980165472</v>
+        <v>7.009638676081729</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2328,43 +2328,43 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.07679787558627013</v>
+        <v>0.1317410365775112</v>
       </c>
       <c r="C41">
-        <v>0.585904821616662</v>
+        <v>1.005076090273263</v>
       </c>
       <c r="D41">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E41">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F41">
-        <v>0.1021084161660048</v>
+        <v>0.1751593841145561</v>
       </c>
       <c r="G41">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="H41">
-        <v>0.03154388936950629</v>
+        <v>0.05411119320034988</v>
       </c>
       <c r="I41">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="J41">
-        <v>0.1547641724429409</v>
+        <v>0.2654864128343004</v>
       </c>
       <c r="K41">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="L41">
-        <v>1.224985396999556</v>
+        <v>2.101371226235943</v>
       </c>
       <c r="M41">
-        <v>0.7708253566643645</v>
+        <v>1.322293497469455</v>
       </c>
       <c r="P41">
-        <v>3.769340603605992</v>
+        <v>6.466023109909218</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2372,43 +2372,43 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.04474311012417478</v>
+        <v>0.07675347348428915</v>
       </c>
       <c r="C42">
-        <v>0.3413532438984033</v>
+        <v>0.5855660699852926</v>
       </c>
       <c r="D42">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E42">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F42">
-        <v>0.07658131212450356</v>
+        <v>0.131369538085917</v>
       </c>
       <c r="G42">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H42">
-        <v>0.02523511149560503</v>
+        <v>0.04328895456027989</v>
       </c>
       <c r="I42">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="J42">
-        <v>0.1450914116652572</v>
+        <v>0.2488935120321566</v>
       </c>
       <c r="K42">
-        <v>0.1921635082014035</v>
+        <v>0.3296421882710247</v>
       </c>
       <c r="L42">
-        <v>0.8166569313330382</v>
+        <v>1.400914150823961</v>
       </c>
       <c r="M42">
-        <v>0.5138835711095763</v>
+        <v>0.8815289983129702</v>
       </c>
       <c r="P42">
-        <v>2.594902723173311</v>
+        <v>4.451362384166982</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2416,37 +2416,37 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.03405818830347633</v>
+        <v>0.05842428578654849</v>
       </c>
       <c r="C43">
-        <v>0.25983605132565</v>
+        <v>0.4457293965559688</v>
       </c>
       <c r="D43">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E43">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F43">
-        <v>0.05105420808300238</v>
+        <v>0.08757969205727806</v>
       </c>
       <c r="G43">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="J43">
-        <v>0.09672760777683809</v>
+        <v>0.1659290080214377</v>
       </c>
       <c r="K43">
-        <v>0.1281090054676023</v>
+        <v>0.2197614588473498</v>
       </c>
       <c r="L43">
-        <v>1.469982476399468</v>
+        <v>2.521645471483129</v>
       </c>
       <c r="M43">
-        <v>0.9249904279972376</v>
+        <v>1.586752196963346</v>
       </c>
       <c r="P43">
-        <v>3.142351617032818</v>
+        <v>5.390470194112146</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,43 +2454,43 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.02604449693795248</v>
+        <v>0.04467739501324295</v>
       </c>
       <c r="C44">
-        <v>0.1986981568960853</v>
+        <v>0.3408518914839763</v>
       </c>
       <c r="D44">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E44">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F44">
-        <v>0.05105420808300238</v>
+        <v>0.08757969205727806</v>
       </c>
       <c r="G44">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="H44">
-        <v>0.006308777873901258</v>
+        <v>0.01082223864006997</v>
       </c>
       <c r="I44">
-        <v>0.04675823492750041</v>
+        <v>0.08021027002190896</v>
       </c>
       <c r="J44">
-        <v>0.1547641724429409</v>
+        <v>0.2654864128343004</v>
       </c>
       <c r="K44">
-        <v>0.2049744087481637</v>
+        <v>0.3516183341557596</v>
       </c>
       <c r="L44">
-        <v>1.878310942065987</v>
+        <v>3.222102546895111</v>
       </c>
       <c r="M44">
-        <v>1.181932213552025</v>
+        <v>2.027516696119831</v>
       </c>
       <c r="P44">
-        <v>3.883752581183199</v>
+        <v>6.662288337402032</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2498,43 +2498,43 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.07880129842765107</v>
+        <v>0.1351777592708377</v>
       </c>
       <c r="C45">
-        <v>0.6011892952240533</v>
+        <v>1.031295466541262</v>
       </c>
       <c r="D45">
-        <v>0.0007401798800416845</v>
+        <v>0.001269723464433209</v>
       </c>
       <c r="E45">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="F45">
-        <v>0.2042168323320095</v>
+        <v>0.3503187682291122</v>
       </c>
       <c r="G45">
-        <v>0.3688811505269514</v>
+        <v>0.6327881438560735</v>
       </c>
       <c r="H45">
-        <v>0.03154388936950629</v>
+        <v>0.05411119320034988</v>
       </c>
       <c r="I45">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="J45">
-        <v>0.1837824547759923</v>
+        <v>0.3152651152407317</v>
       </c>
       <c r="K45">
-        <v>0.2434071103884444</v>
+        <v>0.4175467718099646</v>
       </c>
       <c r="L45">
-        <v>3.103296339065545</v>
+        <v>5.323473773131052</v>
       </c>
       <c r="M45">
-        <v>1.95275757021639</v>
+        <v>3.349810193589287</v>
       </c>
       <c r="P45">
-        <v>7.072811585003885</v>
+        <v>12.13288157533911</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2542,43 +2542,43 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.1395717912828736</v>
+        <v>0.2394250143017379</v>
       </c>
       <c r="C46">
-        <v>1.064818327981586</v>
+        <v>1.826616546670539</v>
       </c>
       <c r="F46">
-        <v>0.5105420808300239</v>
+        <v>0.8757969205727804</v>
       </c>
       <c r="G46">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="H46">
-        <v>0.07570533448681512</v>
+        <v>0.1298668636808397</v>
       </c>
       <c r="I46">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="J46">
-        <v>0.3192011056635659</v>
+        <v>0.5475657264707444</v>
       </c>
       <c r="K46">
-        <v>0.4227597180430877</v>
+        <v>0.7252128141962541</v>
       </c>
       <c r="L46">
-        <v>6.778252530064214</v>
+        <v>11.62758745183888</v>
       </c>
       <c r="M46">
-        <v>4.265233640209485</v>
+        <v>7.316690685997653</v>
       </c>
       <c r="N46">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O46">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P46">
-        <v>15.15294196215154</v>
+        <v>25.99374352549932</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2586,49 +2586,49 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.412037297710684</v>
+        <v>0.7068193005941253</v>
       </c>
       <c r="C47">
-        <v>3.143506738586786</v>
+        <v>5.392451719118287</v>
       </c>
       <c r="D47">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E47">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F47">
-        <v>0.5871233929545273</v>
+        <v>1.007166458658697</v>
       </c>
       <c r="G47">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="H47">
-        <v>0.2144984477126428</v>
+        <v>0.3679561137623791</v>
       </c>
       <c r="I47">
-        <v>1.589779987535014</v>
+        <v>2.727149180744905</v>
       </c>
       <c r="J47">
-        <v>0.6867660152155506</v>
+        <v>1.178095956952208</v>
       </c>
       <c r="K47">
-        <v>0.9095739388199766</v>
+        <v>1.560306357816183</v>
       </c>
       <c r="L47">
-        <v>6.941583916330821</v>
+        <v>11.90777028200368</v>
       </c>
       <c r="M47">
-        <v>4.3680103544314</v>
+        <v>7.492996485660248</v>
       </c>
       <c r="N47">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O47">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P47">
-        <v>20.08961504122113</v>
+        <v>34.46223856805222</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2636,49 +2636,49 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.4921742113659227</v>
+        <v>0.8442882083271809</v>
       </c>
       <c r="C48">
-        <v>3.754885682882434</v>
+        <v>6.441226769838216</v>
       </c>
       <c r="D48">
-        <v>0.002220539640125053</v>
+        <v>0.003809170393299627</v>
       </c>
       <c r="E48">
-        <v>0.2112128704793884</v>
+        <v>0.3623199506893765</v>
       </c>
       <c r="F48">
-        <v>0.3829065606225179</v>
+        <v>0.6568476904295852</v>
       </c>
       <c r="G48">
-        <v>0.6916521572380339</v>
+        <v>1.186477769730138</v>
       </c>
       <c r="H48">
-        <v>0.1387931132258276</v>
+        <v>0.2380892500815394</v>
       </c>
       <c r="I48">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="J48">
-        <v>0.6287294505494476</v>
+        <v>1.078538552139345</v>
       </c>
       <c r="K48">
-        <v>0.832708535539415</v>
+        <v>1.428449482507773</v>
       </c>
       <c r="L48">
-        <v>5.144938667398142</v>
+        <v>8.825759150190954</v>
       </c>
       <c r="M48">
-        <v>3.237466497990332</v>
+        <v>5.553632689371712</v>
       </c>
       <c r="N48">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O48">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P48">
-        <v>16.70229568557411</v>
+        <v>28.65154446062579</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2686,49 +2686,49 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.6257357341246537</v>
+        <v>1.07340305454894</v>
       </c>
       <c r="C49">
-        <v>4.773850590041846</v>
+        <v>8.189185187704766</v>
       </c>
       <c r="D49">
-        <v>0.0005921439040333475</v>
+        <v>0.001015778771546567</v>
       </c>
       <c r="E49">
-        <v>0.05632343212783691</v>
+        <v>0.09661865351716704</v>
       </c>
       <c r="F49">
-        <v>0.7147589131620333</v>
+        <v>1.226115688801893</v>
       </c>
       <c r="G49">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="H49">
-        <v>0.1261755574780252</v>
+        <v>0.2164447728013995</v>
       </c>
       <c r="I49">
-        <v>0.9351646985500084</v>
+        <v>1.604205400438179</v>
       </c>
       <c r="J49">
-        <v>0.570692885883345</v>
+        <v>0.9789811473264826</v>
       </c>
       <c r="K49">
-        <v>0.7558431322588537</v>
+        <v>1.296592607199364</v>
       </c>
       <c r="L49">
-        <v>4.654944508598318</v>
+        <v>7.985210659696577</v>
       </c>
       <c r="M49">
-        <v>2.929136355324585</v>
+        <v>5.02471529038393</v>
       </c>
       <c r="N49">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O49">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P49">
-        <v>17.46548722434537</v>
+        <v>29.96074271197544</v>
       </c>
     </row>
   </sheetData>
